--- a/PROYECTO PASARELLA/RELEASE 3/RNF_VUCE2.0.R3.v1.0.xlsx
+++ b/PROYECTO PASARELLA/RELEASE 3/RNF_VUCE2.0.R3.v1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO PASARELLA\RELEASE 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848AA349-0DF5-45AD-B734-F3FDB91A35E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="737" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="737" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo de Tratamiento" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +41,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Parámetros Auth NUEVO (MQ)'!$A$1:$U$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Parámetros Auth NUEVO (RO)'!$A$1:$V$49</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId19"/>
     <pivotCache cacheId="1" r:id="rId20"/>
@@ -66,12 +65,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={49A868D7-20B5-4C4C-BF54-3C182B54445F}</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{49A868D7-20B5-4C4C-BF54-3C182B54445F}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,12 +92,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={8A3985C8-6E52-4BAC-99AF-66C684C4518E}</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{8A3985C8-6E52-4BAC-99AF-66C684C4518E}">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,12 +119,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hernán Alosilla</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0FBCD5D6-F57E-4E9F-A5B1-F2EDF9F0D03E}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{7B066058-04B5-4F6C-826E-8C64A16D1B09}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{96C3E7B3-D59D-4083-BE5B-41ACBBE68CC7}">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{CCA6AD5B-055E-4DB0-BA4C-180E715827DA}">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{A29E49AB-F2B0-4CB8-88A9-6CCC64F51AF1}">
+    <comment ref="O6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{C2880C0C-2520-4C42-9DD6-7A1396AC608C}">
+    <comment ref="O7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{9A213F80-7A6B-4AE4-AD80-6249E408569F}">
+    <comment ref="O8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{C0C6F7A6-1AB0-497F-B324-FDE7E3A943D8}">
+    <comment ref="O9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{CFC671CE-819B-4BD4-BA97-3982EB6DDDEC}">
+    <comment ref="O10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{BD5F1FDA-1536-426D-90D1-5E2C6BFDEC45}">
+    <comment ref="O11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -597,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{E4D72E5E-CDC2-440E-937E-60CD11A12902}">
+    <comment ref="O12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -620,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{E0113A63-AB8F-4CAF-83B9-F3B6A900756D}">
+    <comment ref="O13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -684,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{EE5077F5-B330-4460-9107-F720AFEDF141}">
+    <comment ref="O14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{7B89B75B-EA0D-4F46-BC51-E15356127D48}">
+    <comment ref="O16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -772,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{060310F3-4CB1-42F7-94F9-682E0A3321ED}">
+    <comment ref="O17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{325DE853-3DC8-4901-989B-9305082D54DE}">
+    <comment ref="O18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -872,7 +871,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{0B86804A-F7BA-473F-B8F0-1CA15E7D1B55}">
+    <comment ref="O19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -921,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{306E6362-9E12-4A48-803C-FC78A8B69F04}">
+    <comment ref="O20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{BBF45AA5-E098-4520-B821-466EBA0A269D}">
+    <comment ref="O21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{4A7E7F05-816B-4AE8-BB0E-AE8C5EC12353}">
+    <comment ref="O22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{04F239E6-2E35-4ADA-BE79-2D7BAB926241}">
+    <comment ref="O23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1123,7 +1122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{0FDE3903-B2D7-4EAB-AA79-F202112FA19B}">
+    <comment ref="O25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1187,7 +1186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{D3399E9D-6781-4FC8-B15B-D5C6C6445DB2}">
+    <comment ref="O26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1236,7 +1235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{744DE9DA-0C2C-4E6C-9A1C-3FF55075BECE}">
+    <comment ref="O27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1287,7 +1286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{6A572813-79CF-4508-B28C-2D462BB03037}">
+    <comment ref="O28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1336,7 +1335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{BED05C65-F9C3-4EF0-9A1A-A65374C923DB}">
+    <comment ref="O29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1387,7 +1386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O30" authorId="0" shapeId="0" xr:uid="{8F41751B-3422-4E74-B682-E9E87609647B}">
+    <comment ref="O30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O31" authorId="0" shapeId="0" xr:uid="{E6ED3534-4A97-460E-B9A6-2695E361F74C}">
+    <comment ref="O31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1514,7 +1513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{EB7C1DF4-0FF8-4B0A-A0DD-44ED6962525E}">
+    <comment ref="O32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1538,7 +1537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{89C1E71C-2F35-4F55-BF17-B188CFDDBFB4}">
+    <comment ref="O34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1602,7 +1601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O35" authorId="0" shapeId="0" xr:uid="{B56663B9-1C69-44DA-B835-BF4CB6768522}">
+    <comment ref="O35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1651,7 +1650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{0C51F02B-BA1A-4022-8CFE-9AE62973AD85}">
+    <comment ref="O36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1702,7 +1701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{5DD4357F-0290-42E7-8D0F-75D5F871572A}">
+    <comment ref="O37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1751,7 +1750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{A6909984-28ED-4671-930A-6439B708EF4F}">
+    <comment ref="O38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1802,7 +1801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{D55892D1-BD3C-45FC-93FF-37F15157A2D7}">
+    <comment ref="O39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1853,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{269EE580-27BD-4CCC-B3E6-F1F122930C34}">
+    <comment ref="O40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1881,7 +1880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{FE81B305-006A-4FC4-A5F0-0805BE4D5256}">
+    <comment ref="O41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1909,7 +1908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O42" authorId="0" shapeId="0" xr:uid="{E52AD64F-37FE-4096-A022-21C70B995535}">
+    <comment ref="O42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1933,7 +1932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O43" authorId="0" shapeId="0" xr:uid="{A1E12DF7-D6EF-4950-9121-CEAC9A43B065}">
+    <comment ref="O43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1983,7 +1982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{C8984193-FC96-4298-B0CE-385EFFEDEB42}">
+    <comment ref="O44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2008,7 +2007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{1901F709-64B5-44F1-811A-A75B3D0C97E0}">
+    <comment ref="O45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2038,7 +2037,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7724" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7723" uniqueCount="750">
   <si>
     <t>RUTA DE EJEMPLO DE EJECUCIÓN DE TIPO POST</t>
   </si>
@@ -5100,51 +5099,6 @@
     <t>02 PODs con 712 MiB + 4 particiones de Kafka</t>
   </si>
   <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/sunat</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/expirado</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/transferencia-bancaria</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/extorno</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/pago</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/extorno</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/pago</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/reasignacion</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/ordenes-pago/actualizaciondatos</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/liquidaciones/</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/liquidaciones/reporte-mensual</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/liquidaciones/reporte-ordenes-pago?entidadId=38&amp;fechaDesde=20230901&amp;fechaHasta=20240630</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/archivo</t>
-  </si>
-  <si>
-    <t>router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/status</t>
-  </si>
-  <si>
     <t>Porcentaje de peticiones procesadas sin fallos (HTTP 200) durante 60 segundos</t>
   </si>
   <si>
@@ -5157,19 +5111,61 @@
     <t>04 a 06 PODs con 712 MiB + 4 particiones de Kafka</t>
   </si>
   <si>
-    <t>El sistema muesta como resultado, el indice que cumple dentro de la tolerancia definida en el umbral.</t>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/sunat</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/expirado</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/transferencia-bancaria</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/extorno</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/pago</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/extorno</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/pago</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/reasignacion</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/ordenes-pago/actualizaciondatos</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/liquidaciones/</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/liquidaciones/reporte-mensual</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/liquidaciones/reporte-ordenes-pago?entidadId=38&amp;fechaDesde=20230901&amp;fechaHasta=20240630</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/archivo</t>
+  </si>
+  <si>
+    <t>/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6170,7 +6166,7 @@
     <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7089,6 +7085,9 @@
     <xf numFmtId="9" fontId="57" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7144,7 +7143,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="3" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="3"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -7830,7 +7829,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45554.494831828706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{750460EF-1D68-4DA9-AEBF-69D949A98F99}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45554.494831828706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="91">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T92" sheet="EndPoints AUTH - Probar (41)" r:id="rId2"/>
   </cacheSource>
@@ -8186,7 +8185,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45555.375802083334" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{7A558CBF-8B8B-47E8-95F5-1B2F697CFD79}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45555.375802083334" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:H40" sheet="Distribución 01"/>
   </cacheSource>
@@ -8231,7 +8230,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45559.733885300928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="41" xr:uid="{591DCC4E-D86B-4E46-9F25-6A8B0FA01AB3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45559.733885300928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="41">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:H46" sheet="Distribución 02"/>
   </cacheSource>
@@ -11055,7 +11054,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BD15845-010E-4EDB-AE85-87B55D017077}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A5:F47" firstHeaderRow="1" firstDataRow="1" firstDataCol="6" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -11849,7 +11848,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7F3E5FC-D382-45BD-979E-7581E62CF24A}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="J5:L11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -11921,7 +11920,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A57D004-AB0E-44F5-9DAB-3C2A8E9F4F32}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="J5:L11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -12272,16 +12271,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H87"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="21">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -12289,14 +12288,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" s="14" customFormat="1" ht="21">
       <c r="A87" s="14" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{904A5180-DD5C-4C0F-9FFA-620FD0263F2A}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId2"/>
@@ -12305,7 +12304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1CC4CC-F902-4018-8C0F-4AE3C0E28B0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V43"/>
   <sheetViews>
@@ -12316,7 +12315,7 @@
       <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -12342,7 +12341,7 @@
     <col min="22" max="23" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="69.75">
       <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
@@ -12367,14 +12366,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="359" t="s">
+      <c r="I1" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="L1" s="359"/>
-      <c r="M1" s="359"/>
-      <c r="N1" s="359"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+      <c r="N1" s="360"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -12397,7 +12396,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="38.25" hidden="1">
       <c r="A2" s="228" t="s">
         <v>123</v>
       </c>
@@ -12463,7 +12462,7 @@
       </c>
       <c r="V2" s="238"/>
     </row>
-    <row r="3" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="38.25" hidden="1">
       <c r="A3" s="239" t="s">
         <v>123</v>
       </c>
@@ -12529,7 +12528,7 @@
       </c>
       <c r="V3" s="238"/>
     </row>
-    <row r="4" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="38.25" hidden="1">
       <c r="A4" s="239" t="s">
         <v>123</v>
       </c>
@@ -12595,7 +12594,7 @@
       </c>
       <c r="V4" s="238"/>
     </row>
-    <row r="5" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="38.25" hidden="1">
       <c r="A5" s="239" t="s">
         <v>123</v>
       </c>
@@ -12661,7 +12660,7 @@
       </c>
       <c r="V5" s="238"/>
     </row>
-    <row r="6" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="38.25" hidden="1">
       <c r="A6" s="239" t="s">
         <v>123</v>
       </c>
@@ -12727,7 +12726,7 @@
       </c>
       <c r="V6" s="238"/>
     </row>
-    <row r="7" spans="1:22" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="38.25">
       <c r="A7" s="239" t="s">
         <v>123</v>
       </c>
@@ -12793,7 +12792,7 @@
       </c>
       <c r="V7" s="249"/>
     </row>
-    <row r="8" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="38.25" hidden="1">
       <c r="A8" s="239" t="s">
         <v>123</v>
       </c>
@@ -12859,7 +12858,7 @@
       </c>
       <c r="V8" s="238"/>
     </row>
-    <row r="9" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="38.25" hidden="1">
       <c r="A9" s="239" t="s">
         <v>123</v>
       </c>
@@ -12925,7 +12924,7 @@
       </c>
       <c r="V9" s="238"/>
     </row>
-    <row r="10" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="38.25" hidden="1">
       <c r="A10" s="239" t="s">
         <v>123</v>
       </c>
@@ -12991,7 +12990,7 @@
       </c>
       <c r="V10" s="238"/>
     </row>
-    <row r="11" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="38.25" hidden="1">
       <c r="A11" s="239" t="s">
         <v>123</v>
       </c>
@@ -13057,7 +13056,7 @@
       </c>
       <c r="V11" s="238"/>
     </row>
-    <row r="12" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="38.25" hidden="1">
       <c r="A12" s="239" t="s">
         <v>123</v>
       </c>
@@ -13123,7 +13122,7 @@
       </c>
       <c r="V12" s="238"/>
     </row>
-    <row r="13" spans="1:22" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="38.25">
       <c r="A13" s="239" t="s">
         <v>123</v>
       </c>
@@ -13189,7 +13188,7 @@
       </c>
       <c r="V13" s="249"/>
     </row>
-    <row r="14" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="38.25" hidden="1">
       <c r="A14" s="239" t="s">
         <v>123</v>
       </c>
@@ -13255,7 +13254,7 @@
       </c>
       <c r="V14" s="238"/>
     </row>
-    <row r="15" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="38.25" hidden="1">
       <c r="A15" s="239" t="s">
         <v>123</v>
       </c>
@@ -13321,7 +13320,7 @@
       </c>
       <c r="V15" s="238"/>
     </row>
-    <row r="16" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="38.25" hidden="1">
       <c r="A16" s="239" t="s">
         <v>123</v>
       </c>
@@ -13387,7 +13386,7 @@
       </c>
       <c r="V16" s="238"/>
     </row>
-    <row r="17" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="38.25" hidden="1">
       <c r="A17" s="239" t="s">
         <v>123</v>
       </c>
@@ -13453,7 +13452,7 @@
       </c>
       <c r="V17" s="238"/>
     </row>
-    <row r="18" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="38.25" hidden="1">
       <c r="A18" s="239" t="s">
         <v>123</v>
       </c>
@@ -13519,7 +13518,7 @@
       </c>
       <c r="V18" s="238"/>
     </row>
-    <row r="19" spans="1:22" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="38.25">
       <c r="A19" s="239" t="s">
         <v>123</v>
       </c>
@@ -13585,7 +13584,7 @@
       </c>
       <c r="V19" s="249"/>
     </row>
-    <row r="20" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="38.25" hidden="1">
       <c r="A20" s="239" t="s">
         <v>123</v>
       </c>
@@ -13651,7 +13650,7 @@
       </c>
       <c r="V20" s="238"/>
     </row>
-    <row r="21" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="38.25" hidden="1">
       <c r="A21" s="239" t="s">
         <v>123</v>
       </c>
@@ -13717,7 +13716,7 @@
       </c>
       <c r="V21" s="238"/>
     </row>
-    <row r="22" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="38.25" hidden="1">
       <c r="A22" s="239" t="s">
         <v>123</v>
       </c>
@@ -13783,7 +13782,7 @@
       </c>
       <c r="V22" s="238"/>
     </row>
-    <row r="23" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="38.25" hidden="1">
       <c r="A23" s="239" t="s">
         <v>123</v>
       </c>
@@ -13849,7 +13848,7 @@
       </c>
       <c r="V23" s="238"/>
     </row>
-    <row r="24" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="38.25" hidden="1">
       <c r="A24" s="239" t="s">
         <v>123</v>
       </c>
@@ -13915,7 +13914,7 @@
       </c>
       <c r="V24" s="238"/>
     </row>
-    <row r="25" spans="1:22" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="38.25">
       <c r="A25" s="239" t="s">
         <v>123</v>
       </c>
@@ -13981,7 +13980,7 @@
       </c>
       <c r="V25" s="249"/>
     </row>
-    <row r="26" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="38.25" hidden="1">
       <c r="A26" s="239" t="s">
         <v>123</v>
       </c>
@@ -14047,7 +14046,7 @@
       </c>
       <c r="V26" s="238"/>
     </row>
-    <row r="27" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="38.25" hidden="1">
       <c r="A27" s="239" t="s">
         <v>123</v>
       </c>
@@ -14113,7 +14112,7 @@
       </c>
       <c r="V27" s="238"/>
     </row>
-    <row r="28" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="38.25" hidden="1">
       <c r="A28" s="239" t="s">
         <v>123</v>
       </c>
@@ -14179,7 +14178,7 @@
       </c>
       <c r="V28" s="238"/>
     </row>
-    <row r="29" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="38.25" hidden="1">
       <c r="A29" s="239" t="s">
         <v>123</v>
       </c>
@@ -14245,7 +14244,7 @@
       </c>
       <c r="V29" s="238"/>
     </row>
-    <row r="30" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="38.25" hidden="1">
       <c r="A30" s="239" t="s">
         <v>123</v>
       </c>
@@ -14311,7 +14310,7 @@
       </c>
       <c r="V30" s="238"/>
     </row>
-    <row r="31" spans="1:22" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="38.25">
       <c r="A31" s="239" t="s">
         <v>123</v>
       </c>
@@ -14377,7 +14376,7 @@
       </c>
       <c r="V31" s="249"/>
     </row>
-    <row r="32" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="38.25" hidden="1">
       <c r="A32" s="239" t="s">
         <v>123</v>
       </c>
@@ -14443,7 +14442,7 @@
       </c>
       <c r="V32" s="238"/>
     </row>
-    <row r="33" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="38.25" hidden="1">
       <c r="A33" s="239" t="s">
         <v>123</v>
       </c>
@@ -14509,7 +14508,7 @@
       </c>
       <c r="V33" s="238"/>
     </row>
-    <row r="34" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="38.25" hidden="1">
       <c r="A34" s="239" t="s">
         <v>123</v>
       </c>
@@ -14575,7 +14574,7 @@
       </c>
       <c r="V34" s="238"/>
     </row>
-    <row r="35" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="38.25" hidden="1">
       <c r="A35" s="239" t="s">
         <v>123</v>
       </c>
@@ -14641,7 +14640,7 @@
       </c>
       <c r="V35" s="238"/>
     </row>
-    <row r="36" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="38.25" hidden="1">
       <c r="A36" s="239" t="s">
         <v>123</v>
       </c>
@@ -14707,7 +14706,7 @@
       </c>
       <c r="V36" s="238"/>
     </row>
-    <row r="37" spans="1:22" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="38.25">
       <c r="A37" s="239" t="s">
         <v>123</v>
       </c>
@@ -14773,7 +14772,7 @@
       </c>
       <c r="V37" s="249"/>
     </row>
-    <row r="38" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="38.25" hidden="1">
       <c r="A38" s="239" t="s">
         <v>123</v>
       </c>
@@ -14839,7 +14838,7 @@
       </c>
       <c r="V38" s="238"/>
     </row>
-    <row r="39" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="38.25" hidden="1">
       <c r="A39" s="239" t="s">
         <v>123</v>
       </c>
@@ -14905,7 +14904,7 @@
       </c>
       <c r="V39" s="238"/>
     </row>
-    <row r="40" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="38.25" hidden="1">
       <c r="A40" s="239" t="s">
         <v>123</v>
       </c>
@@ -14971,7 +14970,7 @@
       </c>
       <c r="V40" s="238"/>
     </row>
-    <row r="41" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="38.25" hidden="1">
       <c r="A41" s="239" t="s">
         <v>123</v>
       </c>
@@ -15037,7 +15036,7 @@
       </c>
       <c r="V41" s="238"/>
     </row>
-    <row r="42" spans="1:22" ht="38.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="38.25" hidden="1">
       <c r="A42" s="239" t="s">
         <v>123</v>
       </c>
@@ -15103,7 +15102,7 @@
       </c>
       <c r="V42" s="238"/>
     </row>
-    <row r="43" spans="1:22" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="38.25">
       <c r="A43" s="239" t="s">
         <v>123</v>
       </c>
@@ -15170,7 +15169,7 @@
       <c r="V43" s="249"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U43" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
+  <autoFilter ref="A1:U43">
     <filterColumn colId="1">
       <filters>
         <filter val="RNF-013"/>
@@ -15191,7 +15190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E929490A-E74B-48F8-A739-C6DF085E923B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U49"/>
   <sheetViews>
@@ -15202,7 +15201,7 @@
       <selection pane="bottomRight" activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -15228,7 +15227,7 @@
     <col min="22" max="23" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="47.25">
       <c r="A1" s="140" t="s">
         <v>73</v>
       </c>
@@ -15253,14 +15252,14 @@
       <c r="H1" s="142" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="361" t="s">
+      <c r="I1" s="362" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="361"/>
-      <c r="K1" s="361"/>
-      <c r="L1" s="361"/>
-      <c r="M1" s="361"/>
-      <c r="N1" s="361"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
+      <c r="N1" s="362"/>
       <c r="O1" s="144" t="s">
         <v>9</v>
       </c>
@@ -15283,7 +15282,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A2" s="195" t="s">
         <v>109</v>
       </c>
@@ -15340,7 +15339,7 @@
       </c>
       <c r="U2" s="183"/>
     </row>
-    <row r="3" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A3" s="195" t="s">
         <v>109</v>
       </c>
@@ -15397,7 +15396,7 @@
       </c>
       <c r="U3" s="183"/>
     </row>
-    <row r="4" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A4" s="195" t="s">
         <v>109</v>
       </c>
@@ -15454,7 +15453,7 @@
       </c>
       <c r="U4" s="183"/>
     </row>
-    <row r="5" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A5" s="195" t="s">
         <v>109</v>
       </c>
@@ -15511,7 +15510,7 @@
       </c>
       <c r="U5" s="183"/>
     </row>
-    <row r="6" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A6" s="195" t="s">
         <v>109</v>
       </c>
@@ -15568,7 +15567,7 @@
       </c>
       <c r="U6" s="183"/>
     </row>
-    <row r="7" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A7" s="195" t="s">
         <v>109</v>
       </c>
@@ -15625,7 +15624,7 @@
       </c>
       <c r="U7" s="183"/>
     </row>
-    <row r="8" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A8" s="195" t="s">
         <v>109</v>
       </c>
@@ -15680,7 +15679,7 @@
       </c>
       <c r="U8" s="183"/>
     </row>
-    <row r="9" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A9" s="195" t="s">
         <v>109</v>
       </c>
@@ -15735,7 +15734,7 @@
       </c>
       <c r="U9" s="183"/>
     </row>
-    <row r="10" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A10" s="195" t="s">
         <v>109</v>
       </c>
@@ -15790,7 +15789,7 @@
       </c>
       <c r="U10" s="183"/>
     </row>
-    <row r="11" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A11" s="195" t="s">
         <v>109</v>
       </c>
@@ -15845,7 +15844,7 @@
       </c>
       <c r="U11" s="183"/>
     </row>
-    <row r="12" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A12" s="195" t="s">
         <v>109</v>
       </c>
@@ -15900,7 +15899,7 @@
       </c>
       <c r="U12" s="183"/>
     </row>
-    <row r="13" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A13" s="195" t="s">
         <v>109</v>
       </c>
@@ -15955,7 +15954,7 @@
       </c>
       <c r="U13" s="183"/>
     </row>
-    <row r="14" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A14" s="205" t="s">
         <v>109</v>
       </c>
@@ -16012,7 +16011,7 @@
       </c>
       <c r="U14" s="207"/>
     </row>
-    <row r="15" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A15" s="205" t="s">
         <v>109</v>
       </c>
@@ -16069,7 +16068,7 @@
       </c>
       <c r="U15" s="207"/>
     </row>
-    <row r="16" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A16" s="205" t="s">
         <v>109</v>
       </c>
@@ -16126,7 +16125,7 @@
       </c>
       <c r="U16" s="207"/>
     </row>
-    <row r="17" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A17" s="205" t="s">
         <v>109</v>
       </c>
@@ -16183,7 +16182,7 @@
       </c>
       <c r="U17" s="207"/>
     </row>
-    <row r="18" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A18" s="205" t="s">
         <v>109</v>
       </c>
@@ -16240,7 +16239,7 @@
       </c>
       <c r="U18" s="207"/>
     </row>
-    <row r="19" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A19" s="205" t="s">
         <v>109</v>
       </c>
@@ -16297,7 +16296,7 @@
       </c>
       <c r="U19" s="207"/>
     </row>
-    <row r="20" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A20" s="205" t="s">
         <v>109</v>
       </c>
@@ -16354,7 +16353,7 @@
       </c>
       <c r="U20" s="207"/>
     </row>
-    <row r="21" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A21" s="205" t="s">
         <v>109</v>
       </c>
@@ -16411,7 +16410,7 @@
       </c>
       <c r="U21" s="207"/>
     </row>
-    <row r="22" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A22" s="205" t="s">
         <v>109</v>
       </c>
@@ -16468,7 +16467,7 @@
       </c>
       <c r="U22" s="207"/>
     </row>
-    <row r="23" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A23" s="205" t="s">
         <v>109</v>
       </c>
@@ -16525,7 +16524,7 @@
       </c>
       <c r="U23" s="207"/>
     </row>
-    <row r="24" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A24" s="205" t="s">
         <v>109</v>
       </c>
@@ -16582,7 +16581,7 @@
       </c>
       <c r="U24" s="207"/>
     </row>
-    <row r="25" spans="1:21" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="21.75" hidden="1" customHeight="1">
       <c r="A25" s="205" t="s">
         <v>109</v>
       </c>
@@ -16639,7 +16638,7 @@
       </c>
       <c r="U25" s="207"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15.75" hidden="1">
       <c r="A26" s="212" t="s">
         <v>109</v>
       </c>
@@ -16694,7 +16693,7 @@
       </c>
       <c r="U26" s="188"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15.75" hidden="1">
       <c r="A27" s="212" t="s">
         <v>109</v>
       </c>
@@ -16749,7 +16748,7 @@
       </c>
       <c r="U27" s="188"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.75" hidden="1">
       <c r="A28" s="212" t="s">
         <v>109</v>
       </c>
@@ -16804,7 +16803,7 @@
       </c>
       <c r="U28" s="188"/>
     </row>
-    <row r="29" spans="1:21" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="31.5" hidden="1">
       <c r="A29" s="212" t="s">
         <v>109</v>
       </c>
@@ -16859,7 +16858,7 @@
       </c>
       <c r="U29" s="188"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.75" hidden="1">
       <c r="A30" s="212" t="s">
         <v>109</v>
       </c>
@@ -16914,7 +16913,7 @@
       </c>
       <c r="U30" s="188"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75">
       <c r="A31" s="212" t="s">
         <v>109</v>
       </c>
@@ -16967,7 +16966,7 @@
       </c>
       <c r="U31" s="188"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75" hidden="1">
       <c r="A32" s="208" t="s">
         <v>109</v>
       </c>
@@ -17024,7 +17023,7 @@
       </c>
       <c r="U32" s="210"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15.75" hidden="1">
       <c r="A33" s="208" t="s">
         <v>109</v>
       </c>
@@ -17081,7 +17080,7 @@
       </c>
       <c r="U33" s="210"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.75" hidden="1">
       <c r="A34" s="208" t="s">
         <v>109</v>
       </c>
@@ -17138,7 +17137,7 @@
       </c>
       <c r="U34" s="210"/>
     </row>
-    <row r="35" spans="1:21" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="31.5" hidden="1">
       <c r="A35" s="208" t="s">
         <v>109</v>
       </c>
@@ -17195,7 +17194,7 @@
       </c>
       <c r="U35" s="210"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.75" hidden="1">
       <c r="A36" s="208" t="s">
         <v>109</v>
       </c>
@@ -17252,7 +17251,7 @@
       </c>
       <c r="U36" s="210"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.75">
       <c r="A37" s="208" t="s">
         <v>109</v>
       </c>
@@ -17307,7 +17306,7 @@
       </c>
       <c r="U37" s="210"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15.75" hidden="1">
       <c r="A38" s="208" t="s">
         <v>109</v>
       </c>
@@ -17362,7 +17361,7 @@
       </c>
       <c r="U38" s="210"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15.75" hidden="1">
       <c r="A39" s="208" t="s">
         <v>109</v>
       </c>
@@ -17417,7 +17416,7 @@
       </c>
       <c r="U39" s="210"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15.75" hidden="1">
       <c r="A40" s="208" t="s">
         <v>109</v>
       </c>
@@ -17472,7 +17471,7 @@
       </c>
       <c r="U40" s="210"/>
     </row>
-    <row r="41" spans="1:21" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="31.5" hidden="1">
       <c r="A41" s="208" t="s">
         <v>109</v>
       </c>
@@ -17527,7 +17526,7 @@
       </c>
       <c r="U41" s="210"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.75" hidden="1">
       <c r="A42" s="208" t="s">
         <v>109</v>
       </c>
@@ -17582,7 +17581,7 @@
       </c>
       <c r="U42" s="210"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15.75">
       <c r="A43" s="208" t="s">
         <v>109</v>
       </c>
@@ -17635,7 +17634,7 @@
       </c>
       <c r="U43" s="210"/>
     </row>
-    <row r="44" spans="1:21" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="19.5" hidden="1" customHeight="1">
       <c r="A44" s="205" t="s">
         <v>109</v>
       </c>
@@ -17692,7 +17691,7 @@
       </c>
       <c r="U44" s="207"/>
     </row>
-    <row r="45" spans="1:21" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="409.5" hidden="1">
       <c r="A45" s="205" t="s">
         <v>109</v>
       </c>
@@ -17749,7 +17748,7 @@
       </c>
       <c r="U45" s="207"/>
     </row>
-    <row r="46" spans="1:21" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="409.5" hidden="1">
       <c r="A46" s="205" t="s">
         <v>109</v>
       </c>
@@ -17806,7 +17805,7 @@
       </c>
       <c r="U46" s="207"/>
     </row>
-    <row r="47" spans="1:21" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="409.5" hidden="1">
       <c r="A47" s="205" t="s">
         <v>109</v>
       </c>
@@ -17863,7 +17862,7 @@
       </c>
       <c r="U47" s="207"/>
     </row>
-    <row r="48" spans="1:21" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="19.5" hidden="1" customHeight="1">
       <c r="A48" s="205" t="s">
         <v>109</v>
       </c>
@@ -17920,7 +17919,7 @@
       </c>
       <c r="U48" s="207"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="205" t="s">
         <v>109</v>
       </c>
@@ -17978,7 +17977,7 @@
       <c r="U49" s="207"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U49" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
+  <autoFilter ref="A1:U49">
     <filterColumn colId="1">
       <filters>
         <filter val="RNF-013"/>
@@ -17998,7 +17997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1CD553-0806-4420-A71C-0D9749CB9C42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U55"/>
   <sheetViews>
@@ -18009,7 +18008,7 @@
       <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -18035,7 +18034,7 @@
     <col min="22" max="23" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="69.75">
       <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
@@ -18060,14 +18059,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="359" t="s">
+      <c r="I1" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="L1" s="359"/>
-      <c r="M1" s="359"/>
-      <c r="N1" s="359"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+      <c r="N1" s="360"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -18090,7 +18089,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="37.5" hidden="1">
       <c r="A2" s="44" t="s">
         <v>139</v>
       </c>
@@ -18145,7 +18144,7 @@
       </c>
       <c r="U2" s="43"/>
     </row>
-    <row r="3" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="37.5" hidden="1">
       <c r="A3" s="44" t="s">
         <v>139</v>
       </c>
@@ -18200,7 +18199,7 @@
       </c>
       <c r="U3" s="43"/>
     </row>
-    <row r="4" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="37.5" hidden="1">
       <c r="A4" s="44" t="s">
         <v>139</v>
       </c>
@@ -18255,7 +18254,7 @@
       </c>
       <c r="U4" s="43"/>
     </row>
-    <row r="5" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="37.5" hidden="1">
       <c r="A5" s="44" t="s">
         <v>139</v>
       </c>
@@ -18310,7 +18309,7 @@
       </c>
       <c r="U5" s="43"/>
     </row>
-    <row r="6" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="37.5" hidden="1">
       <c r="A6" s="44" t="s">
         <v>139</v>
       </c>
@@ -18365,7 +18364,7 @@
       </c>
       <c r="U6" s="43"/>
     </row>
-    <row r="7" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="37.5">
       <c r="A7" s="44" t="s">
         <v>139</v>
       </c>
@@ -18418,7 +18417,7 @@
       </c>
       <c r="U7" s="43"/>
     </row>
-    <row r="8" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="37.5" hidden="1">
       <c r="A8" s="44" t="s">
         <v>139</v>
       </c>
@@ -18473,7 +18472,7 @@
       </c>
       <c r="U8" s="43"/>
     </row>
-    <row r="9" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="37.5" hidden="1">
       <c r="A9" s="44" t="s">
         <v>139</v>
       </c>
@@ -18528,7 +18527,7 @@
       </c>
       <c r="U9" s="43"/>
     </row>
-    <row r="10" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="37.5" hidden="1">
       <c r="A10" s="44" t="s">
         <v>139</v>
       </c>
@@ -18583,7 +18582,7 @@
       </c>
       <c r="U10" s="43"/>
     </row>
-    <row r="11" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="37.5" hidden="1">
       <c r="A11" s="44" t="s">
         <v>139</v>
       </c>
@@ -18638,7 +18637,7 @@
       </c>
       <c r="U11" s="43"/>
     </row>
-    <row r="12" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="37.5" hidden="1">
       <c r="A12" s="44" t="s">
         <v>139</v>
       </c>
@@ -18693,7 +18692,7 @@
       </c>
       <c r="U12" s="43"/>
     </row>
-    <row r="13" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="37.5">
       <c r="A13" s="44" t="s">
         <v>139</v>
       </c>
@@ -18746,7 +18745,7 @@
       </c>
       <c r="U13" s="43"/>
     </row>
-    <row r="14" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="37.5" hidden="1">
       <c r="A14" s="44" t="s">
         <v>139</v>
       </c>
@@ -18801,7 +18800,7 @@
       </c>
       <c r="U14" s="43"/>
     </row>
-    <row r="15" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="37.5" hidden="1">
       <c r="A15" s="44" t="s">
         <v>139</v>
       </c>
@@ -18856,7 +18855,7 @@
       </c>
       <c r="U15" s="43"/>
     </row>
-    <row r="16" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="37.5" hidden="1">
       <c r="A16" s="44" t="s">
         <v>139</v>
       </c>
@@ -18911,7 +18910,7 @@
       </c>
       <c r="U16" s="43"/>
     </row>
-    <row r="17" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="37.5" hidden="1">
       <c r="A17" s="44" t="s">
         <v>139</v>
       </c>
@@ -18966,7 +18965,7 @@
       </c>
       <c r="U17" s="43"/>
     </row>
-    <row r="18" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="37.5" hidden="1">
       <c r="A18" s="44" t="s">
         <v>139</v>
       </c>
@@ -19021,7 +19020,7 @@
       </c>
       <c r="U18" s="43"/>
     </row>
-    <row r="19" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="37.5" hidden="1">
       <c r="A19" s="44" t="s">
         <v>139</v>
       </c>
@@ -19076,7 +19075,7 @@
       </c>
       <c r="U19" s="43"/>
     </row>
-    <row r="20" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="37.5" hidden="1">
       <c r="A20" s="44" t="s">
         <v>139</v>
       </c>
@@ -19131,7 +19130,7 @@
       </c>
       <c r="U20" s="43"/>
     </row>
-    <row r="21" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="37.5" hidden="1">
       <c r="A21" s="44" t="s">
         <v>139</v>
       </c>
@@ -19186,7 +19185,7 @@
       </c>
       <c r="U21" s="43"/>
     </row>
-    <row r="22" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="37.5" hidden="1">
       <c r="A22" s="44" t="s">
         <v>139</v>
       </c>
@@ -19241,7 +19240,7 @@
       </c>
       <c r="U22" s="43"/>
     </row>
-    <row r="23" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="37.5" hidden="1">
       <c r="A23" s="44" t="s">
         <v>139</v>
       </c>
@@ -19296,7 +19295,7 @@
       </c>
       <c r="U23" s="43"/>
     </row>
-    <row r="24" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="37.5" hidden="1">
       <c r="A24" s="44" t="s">
         <v>139</v>
       </c>
@@ -19351,7 +19350,7 @@
       </c>
       <c r="U24" s="43"/>
     </row>
-    <row r="25" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="37.5" hidden="1">
       <c r="A25" s="44" t="s">
         <v>139</v>
       </c>
@@ -19406,7 +19405,7 @@
       </c>
       <c r="U25" s="43"/>
     </row>
-    <row r="26" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="37.5" hidden="1">
       <c r="A26" s="44" t="s">
         <v>139</v>
       </c>
@@ -19461,7 +19460,7 @@
       </c>
       <c r="U26" s="43"/>
     </row>
-    <row r="27" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="37.5" hidden="1">
       <c r="A27" s="44" t="s">
         <v>139</v>
       </c>
@@ -19516,7 +19515,7 @@
       </c>
       <c r="U27" s="43"/>
     </row>
-    <row r="28" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="37.5" hidden="1">
       <c r="A28" s="44" t="s">
         <v>139</v>
       </c>
@@ -19571,7 +19570,7 @@
       </c>
       <c r="U28" s="43"/>
     </row>
-    <row r="29" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="37.5" hidden="1">
       <c r="A29" s="44" t="s">
         <v>139</v>
       </c>
@@ -19626,7 +19625,7 @@
       </c>
       <c r="U29" s="43"/>
     </row>
-    <row r="30" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="37.5" hidden="1">
       <c r="A30" s="44" t="s">
         <v>139</v>
       </c>
@@ -19681,7 +19680,7 @@
       </c>
       <c r="U30" s="43"/>
     </row>
-    <row r="31" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="37.5">
       <c r="A31" s="44" t="s">
         <v>139</v>
       </c>
@@ -19734,7 +19733,7 @@
       </c>
       <c r="U31" s="43"/>
     </row>
-    <row r="32" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="37.5" hidden="1">
       <c r="A32" s="44" t="s">
         <v>139</v>
       </c>
@@ -19789,7 +19788,7 @@
       </c>
       <c r="U32" s="43"/>
     </row>
-    <row r="33" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="37.5" hidden="1">
       <c r="A33" s="44" t="s">
         <v>139</v>
       </c>
@@ -19844,7 +19843,7 @@
       </c>
       <c r="U33" s="43"/>
     </row>
-    <row r="34" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="37.5" hidden="1">
       <c r="A34" s="44" t="s">
         <v>139</v>
       </c>
@@ -19899,7 +19898,7 @@
       </c>
       <c r="U34" s="43"/>
     </row>
-    <row r="35" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="37.5" hidden="1">
       <c r="A35" s="44" t="s">
         <v>139</v>
       </c>
@@ -19954,7 +19953,7 @@
       </c>
       <c r="U35" s="43"/>
     </row>
-    <row r="36" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="37.5" hidden="1">
       <c r="A36" s="44" t="s">
         <v>139</v>
       </c>
@@ -20009,7 +20008,7 @@
       </c>
       <c r="U36" s="43"/>
     </row>
-    <row r="37" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="37.5">
       <c r="A37" s="44" t="s">
         <v>139</v>
       </c>
@@ -20062,7 +20061,7 @@
       </c>
       <c r="U37" s="43"/>
     </row>
-    <row r="38" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="37.5" hidden="1">
       <c r="A38" s="44" t="s">
         <v>139</v>
       </c>
@@ -20117,7 +20116,7 @@
       </c>
       <c r="U38" s="43"/>
     </row>
-    <row r="39" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="37.5" hidden="1">
       <c r="A39" s="44" t="s">
         <v>139</v>
       </c>
@@ -20172,7 +20171,7 @@
       </c>
       <c r="U39" s="43"/>
     </row>
-    <row r="40" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="37.5" hidden="1">
       <c r="A40" s="44" t="s">
         <v>139</v>
       </c>
@@ -20227,7 +20226,7 @@
       </c>
       <c r="U40" s="43"/>
     </row>
-    <row r="41" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="37.5" hidden="1">
       <c r="A41" s="44" t="s">
         <v>139</v>
       </c>
@@ -20282,7 +20281,7 @@
       </c>
       <c r="U41" s="43"/>
     </row>
-    <row r="42" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="37.5" hidden="1">
       <c r="A42" s="44" t="s">
         <v>139</v>
       </c>
@@ -20337,7 +20336,7 @@
       </c>
       <c r="U42" s="43"/>
     </row>
-    <row r="43" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="37.5">
       <c r="A43" s="44" t="s">
         <v>139</v>
       </c>
@@ -20390,7 +20389,7 @@
       </c>
       <c r="U43" s="43"/>
     </row>
-    <row r="44" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="37.5" hidden="1">
       <c r="A44" s="44" t="s">
         <v>139</v>
       </c>
@@ -20445,7 +20444,7 @@
       </c>
       <c r="U44" s="43"/>
     </row>
-    <row r="45" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="37.5" hidden="1">
       <c r="A45" s="44" t="s">
         <v>139</v>
       </c>
@@ -20500,7 +20499,7 @@
       </c>
       <c r="U45" s="43"/>
     </row>
-    <row r="46" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="37.5" hidden="1">
       <c r="A46" s="44" t="s">
         <v>139</v>
       </c>
@@ -20555,7 +20554,7 @@
       </c>
       <c r="U46" s="43"/>
     </row>
-    <row r="47" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="37.5" hidden="1">
       <c r="A47" s="44" t="s">
         <v>139</v>
       </c>
@@ -20610,7 +20609,7 @@
       </c>
       <c r="U47" s="43"/>
     </row>
-    <row r="48" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="37.5" hidden="1">
       <c r="A48" s="44" t="s">
         <v>139</v>
       </c>
@@ -20665,7 +20664,7 @@
       </c>
       <c r="U48" s="43"/>
     </row>
-    <row r="49" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="37.5">
       <c r="A49" s="44" t="s">
         <v>139</v>
       </c>
@@ -20718,7 +20717,7 @@
       </c>
       <c r="U49" s="43"/>
     </row>
-    <row r="50" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="37.5" hidden="1">
       <c r="A50" s="44" t="s">
         <v>139</v>
       </c>
@@ -20773,7 +20772,7 @@
       </c>
       <c r="U50" s="43"/>
     </row>
-    <row r="51" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="37.5" hidden="1">
       <c r="A51" s="44" t="s">
         <v>139</v>
       </c>
@@ -20828,7 +20827,7 @@
       </c>
       <c r="U51" s="43"/>
     </row>
-    <row r="52" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="37.5" hidden="1">
       <c r="A52" s="44" t="s">
         <v>139</v>
       </c>
@@ -20883,7 +20882,7 @@
       </c>
       <c r="U52" s="43"/>
     </row>
-    <row r="53" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="37.5" hidden="1">
       <c r="A53" s="44" t="s">
         <v>139</v>
       </c>
@@ -20938,7 +20937,7 @@
       </c>
       <c r="U53" s="43"/>
     </row>
-    <row r="54" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="37.5" hidden="1">
       <c r="A54" s="44" t="s">
         <v>139</v>
       </c>
@@ -20993,7 +20992,7 @@
       </c>
       <c r="U54" s="43"/>
     </row>
-    <row r="55" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="37.5">
       <c r="A55" s="44" t="s">
         <v>139</v>
       </c>
@@ -21047,7 +21046,7 @@
       <c r="U55" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U55" xr:uid="{BF1CD553-0806-4420-A71C-0D9749CB9C42}">
+  <autoFilter ref="A1:U55">
     <filterColumn colId="1">
       <filters>
         <filter val="RNF-013"/>
@@ -21067,7 +21066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5CAA6F-37A3-4CB9-8EDD-9CCB2FCBC828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V55"/>
   <sheetViews>
@@ -21078,7 +21077,7 @@
       <selection pane="bottomRight" activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -21104,7 +21103,7 @@
     <col min="22" max="23" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="69.75">
       <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
@@ -21129,14 +21128,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="359" t="s">
+      <c r="I1" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="L1" s="359"/>
-      <c r="M1" s="359"/>
-      <c r="N1" s="359"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+      <c r="N1" s="360"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -21159,7 +21158,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="37.5" hidden="1">
       <c r="A2" s="149" t="s">
         <v>79</v>
       </c>
@@ -21214,7 +21213,7 @@
       </c>
       <c r="U2" s="43"/>
     </row>
-    <row r="3" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="37.5" hidden="1">
       <c r="A3" s="149" t="s">
         <v>79</v>
       </c>
@@ -21269,7 +21268,7 @@
       </c>
       <c r="U3" s="43"/>
     </row>
-    <row r="4" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="37.5" hidden="1">
       <c r="A4" s="149" t="s">
         <v>79</v>
       </c>
@@ -21324,7 +21323,7 @@
       </c>
       <c r="U4" s="43"/>
     </row>
-    <row r="5" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="37.5" hidden="1">
       <c r="A5" s="149" t="s">
         <v>79</v>
       </c>
@@ -21379,7 +21378,7 @@
       </c>
       <c r="U5" s="43"/>
     </row>
-    <row r="6" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="37.5" hidden="1">
       <c r="A6" s="149" t="s">
         <v>79</v>
       </c>
@@ -21434,7 +21433,7 @@
       </c>
       <c r="U6" s="43"/>
     </row>
-    <row r="7" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="37.5">
       <c r="A7" s="149" t="s">
         <v>79</v>
       </c>
@@ -21487,7 +21486,7 @@
       </c>
       <c r="U7" s="43"/>
     </row>
-    <row r="8" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="37.5" hidden="1">
       <c r="A8" s="44" t="s">
         <v>79</v>
       </c>
@@ -21542,7 +21541,7 @@
       </c>
       <c r="U8" s="43"/>
     </row>
-    <row r="9" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="37.5" hidden="1">
       <c r="A9" s="44" t="s">
         <v>79</v>
       </c>
@@ -21597,7 +21596,7 @@
       </c>
       <c r="U9" s="43"/>
     </row>
-    <row r="10" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="37.5" hidden="1">
       <c r="A10" s="44" t="s">
         <v>79</v>
       </c>
@@ -21652,7 +21651,7 @@
       </c>
       <c r="U10" s="43"/>
     </row>
-    <row r="11" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="37.5" hidden="1">
       <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
@@ -21707,7 +21706,7 @@
       </c>
       <c r="U11" s="43"/>
     </row>
-    <row r="12" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="37.5" hidden="1">
       <c r="A12" s="44" t="s">
         <v>79</v>
       </c>
@@ -21762,7 +21761,7 @@
       </c>
       <c r="U12" s="43"/>
     </row>
-    <row r="13" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="37.5">
       <c r="A13" s="44" t="s">
         <v>79</v>
       </c>
@@ -21815,7 +21814,7 @@
       </c>
       <c r="U13" s="43"/>
     </row>
-    <row r="14" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="37.5" hidden="1">
       <c r="A14" s="149" t="s">
         <v>79</v>
       </c>
@@ -21870,7 +21869,7 @@
       </c>
       <c r="U14" s="43"/>
     </row>
-    <row r="15" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="37.5" hidden="1">
       <c r="A15" s="149" t="s">
         <v>79</v>
       </c>
@@ -21925,7 +21924,7 @@
       </c>
       <c r="U15" s="43"/>
     </row>
-    <row r="16" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="37.5" hidden="1">
       <c r="A16" s="149" t="s">
         <v>79</v>
       </c>
@@ -21980,7 +21979,7 @@
       </c>
       <c r="U16" s="43"/>
     </row>
-    <row r="17" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="37.5" hidden="1">
       <c r="A17" s="149" t="s">
         <v>79</v>
       </c>
@@ -22035,7 +22034,7 @@
       </c>
       <c r="U17" s="43"/>
     </row>
-    <row r="18" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="37.5" hidden="1">
       <c r="A18" s="149" t="s">
         <v>79</v>
       </c>
@@ -22090,7 +22089,7 @@
       </c>
       <c r="U18" s="43"/>
     </row>
-    <row r="19" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="37.5" hidden="1">
       <c r="A19" s="149" t="s">
         <v>79</v>
       </c>
@@ -22145,7 +22144,7 @@
       </c>
       <c r="U19" s="43"/>
     </row>
-    <row r="20" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="45.75" hidden="1">
       <c r="A20" s="44" t="s">
         <v>79</v>
       </c>
@@ -22202,7 +22201,7 @@
       </c>
       <c r="U20" s="43"/>
     </row>
-    <row r="21" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="45.75" hidden="1">
       <c r="A21" s="44" t="s">
         <v>79</v>
       </c>
@@ -22259,7 +22258,7 @@
       </c>
       <c r="U21" s="43"/>
     </row>
-    <row r="22" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="45.75" hidden="1">
       <c r="A22" s="44" t="s">
         <v>79</v>
       </c>
@@ -22316,7 +22315,7 @@
       </c>
       <c r="U22" s="43"/>
     </row>
-    <row r="23" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="45.75" hidden="1">
       <c r="A23" s="44" t="s">
         <v>79</v>
       </c>
@@ -22373,7 +22372,7 @@
       </c>
       <c r="U23" s="43"/>
     </row>
-    <row r="24" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="45.75" hidden="1">
       <c r="A24" s="44" t="s">
         <v>79</v>
       </c>
@@ -22430,7 +22429,7 @@
       </c>
       <c r="U24" s="43"/>
     </row>
-    <row r="25" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="45.75" hidden="1">
       <c r="A25" s="44" t="s">
         <v>79</v>
       </c>
@@ -22487,7 +22486,7 @@
       </c>
       <c r="U25" s="43"/>
     </row>
-    <row r="26" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="45.75" hidden="1">
       <c r="A26" s="149" t="s">
         <v>79</v>
       </c>
@@ -22544,7 +22543,7 @@
       </c>
       <c r="U26" s="43"/>
     </row>
-    <row r="27" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="45.75" hidden="1">
       <c r="A27" s="149" t="s">
         <v>79</v>
       </c>
@@ -22601,7 +22600,7 @@
       </c>
       <c r="U27" s="43"/>
     </row>
-    <row r="28" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="45.75" hidden="1">
       <c r="A28" s="149" t="s">
         <v>79</v>
       </c>
@@ -22658,7 +22657,7 @@
       </c>
       <c r="U28" s="43"/>
     </row>
-    <row r="29" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="45.75" hidden="1">
       <c r="A29" s="149" t="s">
         <v>79</v>
       </c>
@@ -22715,7 +22714,7 @@
       </c>
       <c r="U29" s="43"/>
     </row>
-    <row r="30" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="45.75" hidden="1">
       <c r="A30" s="149" t="s">
         <v>79</v>
       </c>
@@ -22772,7 +22771,7 @@
       </c>
       <c r="U30" s="43"/>
     </row>
-    <row r="31" spans="1:22" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="45.75" hidden="1">
       <c r="A31" s="149" t="s">
         <v>79</v>
       </c>
@@ -22829,7 +22828,7 @@
       </c>
       <c r="U31" s="43"/>
     </row>
-    <row r="32" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="37.5" hidden="1">
       <c r="A32" s="44" t="s">
         <v>79</v>
       </c>
@@ -22889,7 +22888,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="37.5" hidden="1">
       <c r="A33" s="44" t="s">
         <v>79</v>
       </c>
@@ -22949,7 +22948,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="37.5" hidden="1">
       <c r="A34" s="44" t="s">
         <v>79</v>
       </c>
@@ -23009,7 +23008,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="37.5" hidden="1">
       <c r="A35" s="44" t="s">
         <v>79</v>
       </c>
@@ -23069,7 +23068,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="37.5" hidden="1">
       <c r="A36" s="44" t="s">
         <v>79</v>
       </c>
@@ -23129,7 +23128,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="88" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="88" customFormat="1" ht="37.5" hidden="1">
       <c r="A37" s="44" t="s">
         <v>79</v>
       </c>
@@ -23189,7 +23188,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="37.5" hidden="1">
       <c r="A38" s="149" t="s">
         <v>79</v>
       </c>
@@ -23246,7 +23245,7 @@
       </c>
       <c r="U38" s="43"/>
     </row>
-    <row r="39" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="37.5" hidden="1">
       <c r="A39" s="149" t="s">
         <v>79</v>
       </c>
@@ -23303,7 +23302,7 @@
       </c>
       <c r="U39" s="43"/>
     </row>
-    <row r="40" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="37.5" hidden="1">
       <c r="A40" s="149" t="s">
         <v>79</v>
       </c>
@@ -23360,7 +23359,7 @@
       </c>
       <c r="U40" s="43"/>
     </row>
-    <row r="41" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="37.5" hidden="1">
       <c r="A41" s="149" t="s">
         <v>79</v>
       </c>
@@ -23417,7 +23416,7 @@
       </c>
       <c r="U41" s="43"/>
     </row>
-    <row r="42" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="37.5" hidden="1">
       <c r="A42" s="149" t="s">
         <v>79</v>
       </c>
@@ -23474,7 +23473,7 @@
       </c>
       <c r="U42" s="43"/>
     </row>
-    <row r="43" spans="1:22" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="37.5">
       <c r="A43" s="149" t="s">
         <v>79</v>
       </c>
@@ -23529,7 +23528,7 @@
       </c>
       <c r="U43" s="43"/>
     </row>
-    <row r="44" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="37.5" hidden="1">
       <c r="A44" s="44" t="s">
         <v>79</v>
       </c>
@@ -23586,7 +23585,7 @@
       </c>
       <c r="U44" s="43"/>
     </row>
-    <row r="45" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="37.5" hidden="1">
       <c r="A45" s="44" t="s">
         <v>79</v>
       </c>
@@ -23643,7 +23642,7 @@
       </c>
       <c r="U45" s="43"/>
     </row>
-    <row r="46" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="37.5" hidden="1">
       <c r="A46" s="44" t="s">
         <v>79</v>
       </c>
@@ -23700,7 +23699,7 @@
       </c>
       <c r="U46" s="43"/>
     </row>
-    <row r="47" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="37.5" hidden="1">
       <c r="A47" s="44" t="s">
         <v>79</v>
       </c>
@@ -23757,7 +23756,7 @@
       </c>
       <c r="U47" s="43"/>
     </row>
-    <row r="48" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="37.5" hidden="1">
       <c r="A48" s="44" t="s">
         <v>79</v>
       </c>
@@ -23814,7 +23813,7 @@
       </c>
       <c r="U48" s="43"/>
     </row>
-    <row r="49" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="37.5" hidden="1">
       <c r="A49" s="44" t="s">
         <v>79</v>
       </c>
@@ -23871,7 +23870,7 @@
       </c>
       <c r="U49" s="43"/>
     </row>
-    <row r="50" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="37.5" hidden="1">
       <c r="A50" s="149" t="s">
         <v>79</v>
       </c>
@@ -23931,7 +23930,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="37.5" hidden="1">
       <c r="A51" s="149" t="s">
         <v>79</v>
       </c>
@@ -23991,7 +23990,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="37.5" hidden="1">
       <c r="A52" s="149" t="s">
         <v>79</v>
       </c>
@@ -24051,7 +24050,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="37.5" hidden="1">
       <c r="A53" s="149" t="s">
         <v>79</v>
       </c>
@@ -24111,7 +24110,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="37.5" hidden="1">
       <c r="A54" s="149" t="s">
         <v>79</v>
       </c>
@@ -24171,7 +24170,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="88" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" s="88" customFormat="1" ht="37.5">
       <c r="A55" s="149" t="s">
         <v>79</v>
       </c>
@@ -24230,7 +24229,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U55" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
+  <autoFilter ref="A1:U55">
     <filterColumn colId="1">
       <filters>
         <filter val="RNF-013"/>
@@ -24250,7 +24249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC05E16B-A08C-43A7-AAF2-782BF4390D12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V49"/>
   <sheetViews>
@@ -24261,7 +24260,7 @@
       <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -24287,7 +24286,7 @@
     <col min="22" max="23" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="69.75">
       <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
@@ -24312,14 +24311,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="359" t="s">
+      <c r="I1" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="L1" s="359"/>
-      <c r="M1" s="359"/>
-      <c r="N1" s="359"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+      <c r="N1" s="360"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -24345,7 +24344,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A2" s="117" t="s">
         <v>149</v>
       </c>
@@ -24405,7 +24404,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A3" s="117" t="s">
         <v>149</v>
       </c>
@@ -24465,7 +24464,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A4" s="117" t="s">
         <v>149</v>
       </c>
@@ -24525,7 +24524,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A5" s="117" t="s">
         <v>149</v>
       </c>
@@ -24585,7 +24584,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A6" s="117" t="s">
         <v>149</v>
       </c>
@@ -24645,7 +24644,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="194" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="194" customFormat="1" ht="37.5">
       <c r="A7" s="117" t="s">
         <v>149</v>
       </c>
@@ -24703,7 +24702,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A8" s="44" t="s">
         <v>149</v>
       </c>
@@ -24763,7 +24762,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A9" s="44" t="s">
         <v>149</v>
       </c>
@@ -24823,7 +24822,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A10" s="44" t="s">
         <v>149</v>
       </c>
@@ -24883,7 +24882,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A11" s="44" t="s">
         <v>149</v>
       </c>
@@ -24943,7 +24942,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A12" s="44" t="s">
         <v>149</v>
       </c>
@@ -25003,7 +25002,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="199" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="199" customFormat="1" ht="37.5">
       <c r="A13" s="44" t="s">
         <v>149</v>
       </c>
@@ -25061,7 +25060,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A14" s="117" t="s">
         <v>149</v>
       </c>
@@ -25121,7 +25120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A15" s="117" t="s">
         <v>149</v>
       </c>
@@ -25181,7 +25180,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A16" s="117" t="s">
         <v>149</v>
       </c>
@@ -25241,7 +25240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A17" s="117" t="s">
         <v>149</v>
       </c>
@@ -25301,7 +25300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A18" s="117" t="s">
         <v>149</v>
       </c>
@@ -25361,7 +25360,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="194" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="194" customFormat="1" ht="37.5">
       <c r="A19" s="117" t="s">
         <v>149</v>
       </c>
@@ -25419,7 +25418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A20" s="44" t="s">
         <v>149</v>
       </c>
@@ -25479,7 +25478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A21" s="44" t="s">
         <v>149</v>
       </c>
@@ -25539,7 +25538,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A22" s="44" t="s">
         <v>149</v>
       </c>
@@ -25599,7 +25598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A23" s="44" t="s">
         <v>149</v>
       </c>
@@ -25659,7 +25658,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A24" s="44" t="s">
         <v>149</v>
       </c>
@@ -25719,7 +25718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="199" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="199" customFormat="1" ht="37.5">
       <c r="A25" s="44" t="s">
         <v>149</v>
       </c>
@@ -25777,7 +25776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A26" s="117" t="s">
         <v>149</v>
       </c>
@@ -25837,7 +25836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A27" s="117" t="s">
         <v>149</v>
       </c>
@@ -25897,7 +25896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A28" s="117" t="s">
         <v>149</v>
       </c>
@@ -25957,7 +25956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A29" s="117" t="s">
         <v>149</v>
       </c>
@@ -26017,7 +26016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A30" s="117" t="s">
         <v>149</v>
       </c>
@@ -26077,7 +26076,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="194" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="194" customFormat="1" ht="37.5">
       <c r="A31" s="117" t="s">
         <v>149</v>
       </c>
@@ -26135,7 +26134,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A32" s="44" t="s">
         <v>149</v>
       </c>
@@ -26195,7 +26194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A33" s="44" t="s">
         <v>149</v>
       </c>
@@ -26255,7 +26254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A34" s="44" t="s">
         <v>149</v>
       </c>
@@ -26315,7 +26314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A35" s="44" t="s">
         <v>149</v>
       </c>
@@ -26375,7 +26374,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="199" customFormat="1" ht="37.5" hidden="1">
       <c r="A36" s="44" t="s">
         <v>149</v>
       </c>
@@ -26435,7 +26434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="199" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="199" customFormat="1" ht="37.5">
       <c r="A37" s="44" t="s">
         <v>149</v>
       </c>
@@ -26493,7 +26492,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A38" s="117" t="s">
         <v>149</v>
       </c>
@@ -26553,7 +26552,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A39" s="117" t="s">
         <v>149</v>
       </c>
@@ -26613,7 +26612,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A40" s="117" t="s">
         <v>149</v>
       </c>
@@ -26673,7 +26672,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A41" s="117" t="s">
         <v>149</v>
       </c>
@@ -26733,7 +26732,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="194" customFormat="1" ht="37.5" hidden="1">
       <c r="A42" s="117" t="s">
         <v>149</v>
       </c>
@@ -26793,7 +26792,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="194" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="194" customFormat="1" ht="37.5">
       <c r="A43" s="117" t="s">
         <v>149</v>
       </c>
@@ -26851,7 +26850,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="37.5" hidden="1">
       <c r="A44" s="44" t="s">
         <v>149</v>
       </c>
@@ -26911,7 +26910,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="37.5" hidden="1">
       <c r="A45" s="44" t="s">
         <v>149</v>
       </c>
@@ -26971,7 +26970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="37.5" hidden="1">
       <c r="A46" s="44" t="s">
         <v>149</v>
       </c>
@@ -27031,7 +27030,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="37.5" hidden="1">
       <c r="A47" s="44" t="s">
         <v>149</v>
       </c>
@@ -27091,7 +27090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="37.5" hidden="1">
       <c r="A48" s="44" t="s">
         <v>149</v>
       </c>
@@ -27151,7 +27150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="37.5">
       <c r="A49" s="44" t="s">
         <v>149</v>
       </c>
@@ -27210,7 +27209,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V49" xr:uid="{BC05E16B-A08C-43A7-AAF2-782BF4390D12}">
+  <autoFilter ref="A1:V49">
     <filterColumn colId="1">
       <filters>
         <filter val="RNF-013"/>
@@ -27230,14 +27229,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68A1084-FB91-487D-9839-DCEFB0468EB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E34" sqref="E24:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
@@ -27248,7 +27247,7 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11">
       <c r="B2" s="158" t="s">
         <v>635</v>
       </c>
@@ -27261,7 +27260,7 @@
       <c r="I2" s="158"/>
       <c r="J2" s="158"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="158"/>
       <c r="C3" s="159" t="s">
         <v>636</v>
@@ -27283,7 +27282,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="161"/>
       <c r="C4" s="162"/>
       <c r="D4" s="164"/>
@@ -27296,7 +27295,7 @@
       </c>
       <c r="J4" s="158"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="158"/>
       <c r="C5" s="167"/>
       <c r="D5" s="169"/>
@@ -27309,7 +27308,7 @@
       </c>
       <c r="J5" s="158"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="158"/>
       <c r="C6" s="167"/>
       <c r="D6" s="169"/>
@@ -27322,7 +27321,7 @@
       </c>
       <c r="J6" s="158"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="158"/>
       <c r="C7" s="158"/>
       <c r="D7" s="158"/>
@@ -27333,14 +27332,14 @@
       <c r="I7" s="158"/>
       <c r="J7" s="158"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="C8" s="216"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="C9" s="216"/>
       <c r="F9" s="215"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="C10" s="216"/>
     </row>
   </sheetData>
@@ -27349,16 +27348,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
-  <dimension ref="A1:AC46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="S1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E34" sqref="E24:E34"/>
-      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3"/>
+      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1:AG45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.140625" defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.140625" defaultRowHeight="54" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="271" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="259" customWidth="1"/>
@@ -27381,10 +27380,14 @@
     <col min="19" max="20" width="20.7109375" style="269" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.28515625" style="271" customWidth="1"/>
     <col min="22" max="22" width="58.85546875" style="269" customWidth="1"/>
-    <col min="23" max="16384" width="23.140625" style="269"/>
+    <col min="23" max="27" width="23.140625" style="269"/>
+    <col min="28" max="28" width="49.85546875" style="269" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" style="269"/>
+    <col min="30" max="30" width="114.28515625" style="269" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="23.140625" style="269"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="260" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="260" customFormat="1" ht="36">
       <c r="A1" s="261" t="s">
         <v>687</v>
       </c>
@@ -27399,7 +27402,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="264" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="G1" s="261" t="s">
         <v>691</v>
@@ -27433,7 +27436,7 @@
         <v>23</v>
       </c>
       <c r="R1" s="300" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="S1" s="267">
         <v>0.95</v>
@@ -27447,11 +27450,23 @@
       <c r="V1" s="286" t="s">
         <v>712</v>
       </c>
-      <c r="AA1" s="260" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="260" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AA1" s="260">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="260" t="str">
+        <f>CONCATENATE(AA1,") ", B1, ": ", D1, " - ",I1, " Peticiones x ",K1, " Segundos x ", M1, " Repeticiones")</f>
+        <v>1) RNF-006 a: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AD1" s="260" t="str">
+        <f>CONCATENATE("Validar el performance del API ", F1, " cuando los parametros de rendimiento son ", I1, " Peticiones x ",K1, " Segundos x ", M1, " Repeticiones")</f>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/sunat cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG1" s="260" t="str">
+        <f>CONCATENATE(I1, " Peticiones x ",K1, " Segundos x ", M1, " Repeticiones")</f>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="260" customFormat="1" ht="36">
       <c r="A2" s="261" t="s">
         <v>687</v>
       </c>
@@ -27466,7 +27481,7 @@
         <v>90</v>
       </c>
       <c r="F2" s="264" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="G2" s="261" t="s">
         <v>718</v>
@@ -27500,7 +27515,7 @@
         <v>689</v>
       </c>
       <c r="R2" s="300" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="S2" s="267">
         <v>0.95</v>
@@ -27511,8 +27526,23 @@
       <c r="U2" s="297" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="260" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AA2" s="260">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="260" t="str">
+        <f t="shared" ref="AB2:AB45" si="0">CONCATENATE(AA2,") ", B2, ": ", D2, " - ",I2, " Peticiones x ",K2, " Segundos x ", M2, " Repeticiones")</f>
+        <v>2) RNF-006 a: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AD2" s="260" t="str">
+        <f t="shared" ref="AD2:AD45" si="1">CONCATENATE("Validar el performance del API ", F2, " cuando los parametros de rendimiento son ", I2, " Peticiones x ",K2, " Segundos x ", M2, " Repeticiones")</f>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG2" s="260" t="str">
+        <f t="shared" ref="AG2:AG45" si="2">CONCATENATE(I2, " Peticiones x ",K2, " Segundos x ", M2, " Repeticiones")</f>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="260" customFormat="1" ht="36">
       <c r="A3" s="261" t="s">
         <v>687</v>
       </c>
@@ -27527,7 +27557,7 @@
         <v>90</v>
       </c>
       <c r="F3" s="264" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G3" s="261" t="s">
         <v>719</v>
@@ -27561,7 +27591,7 @@
         <v>689</v>
       </c>
       <c r="R3" s="300" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="S3" s="267">
         <v>0.95</v>
@@ -27572,8 +27602,23 @@
       <c r="U3" s="297" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AA3" s="260">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>3) RNF-006 a: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AD3" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/expirado cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG3" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="36">
       <c r="A4" s="261" t="s">
         <v>687</v>
       </c>
@@ -27588,7 +27633,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="270" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G4" s="271" t="s">
         <v>726</v>
@@ -27622,7 +27667,7 @@
         <v>23</v>
       </c>
       <c r="R4" s="300" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="S4" s="267">
         <v>0.95</v>
@@ -27634,11 +27679,24 @@
         <v>730</v>
       </c>
       <c r="V4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
+      <c r="AA4" s="260">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>4) RNF-006 a: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC4" s="260"/>
-    </row>
-    <row r="5" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD4" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/transferencia-bancaria cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG4" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="36">
       <c r="A5" s="261" t="s">
         <v>687</v>
       </c>
@@ -27653,7 +27711,7 @@
         <v>90</v>
       </c>
       <c r="F5" s="264" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="G5" s="268" t="s">
         <v>727</v>
@@ -27687,7 +27745,7 @@
         <v>23</v>
       </c>
       <c r="R5" s="300" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="S5" s="267">
         <v>0.95</v>
@@ -27699,11 +27757,24 @@
         <v>730</v>
       </c>
       <c r="V5" s="260"/>
-      <c r="AA5" s="260"/>
-      <c r="AB5" s="260"/>
+      <c r="AA5" s="260">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>5) RNF-006 a: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC5" s="260"/>
-    </row>
-    <row r="6" spans="1:29" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="AD5" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/extorno cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG5" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="33.75">
       <c r="A6" s="261" t="s">
         <v>687</v>
       </c>
@@ -27718,7 +27789,7 @@
         <v>90</v>
       </c>
       <c r="F6" s="264" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="G6" s="268" t="s">
         <v>722</v>
@@ -27752,7 +27823,7 @@
         <v>23</v>
       </c>
       <c r="R6" s="300" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="S6" s="267">
         <v>0.95</v>
@@ -27764,11 +27835,24 @@
         <v>730</v>
       </c>
       <c r="V6" s="260"/>
-      <c r="AA6" s="260"/>
-      <c r="AB6" s="260"/>
+      <c r="AA6" s="260">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>6) RNF-006 a: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC6" s="260"/>
-    </row>
-    <row r="7" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD6" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/pago cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG6" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="36">
       <c r="A7" s="273" t="s">
         <v>687</v>
       </c>
@@ -27783,7 +27867,7 @@
         <v>90</v>
       </c>
       <c r="F7" s="270" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="G7" s="278" t="s">
         <v>723</v>
@@ -27817,7 +27901,7 @@
         <v>23</v>
       </c>
       <c r="R7" s="303" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="S7" s="304">
         <v>0.95</v>
@@ -27829,11 +27913,24 @@
         <v>730</v>
       </c>
       <c r="V7" s="260"/>
-      <c r="AA7" s="260"/>
-      <c r="AB7" s="260"/>
+      <c r="AA7" s="260">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>7) RNF-006 a: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC7" s="260"/>
-    </row>
-    <row r="8" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD7" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/extorno cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG7" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="36">
       <c r="A8" s="273" t="s">
         <v>687</v>
       </c>
@@ -27848,7 +27945,7 @@
         <v>90</v>
       </c>
       <c r="F8" s="264" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G8" s="268" t="s">
         <v>728</v>
@@ -27882,7 +27979,7 @@
         <v>23</v>
       </c>
       <c r="R8" s="300" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="S8" s="267">
         <v>0.95</v>
@@ -27894,11 +27991,24 @@
         <v>730</v>
       </c>
       <c r="V8" s="260"/>
-      <c r="AA8" s="260"/>
-      <c r="AB8" s="260"/>
+      <c r="AA8" s="260">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>8) RNF-006 a: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC8" s="260"/>
-    </row>
-    <row r="9" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD8" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/pago cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG8" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="36">
       <c r="A9" s="261" t="s">
         <v>687</v>
       </c>
@@ -27913,7 +28023,7 @@
         <v>90</v>
       </c>
       <c r="F9" s="264" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="G9" s="268" t="s">
         <v>725</v>
@@ -27947,7 +28057,7 @@
         <v>23</v>
       </c>
       <c r="R9" s="300" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="S9" s="267">
         <v>0.95</v>
@@ -27959,11 +28069,24 @@
         <v>730</v>
       </c>
       <c r="V9" s="260"/>
-      <c r="AA9" s="260"/>
-      <c r="AB9" s="260"/>
+      <c r="AA9" s="260">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>9) RNF-006 a: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC9" s="260"/>
-    </row>
-    <row r="10" spans="1:29" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="AD9" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/reasignacion cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG9" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="33.75">
       <c r="A10" s="261" t="s">
         <v>687</v>
       </c>
@@ -27978,7 +28101,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="264" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G10" s="268" t="s">
         <v>716</v>
@@ -28012,7 +28135,7 @@
         <v>23</v>
       </c>
       <c r="R10" s="300" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="S10" s="267">
         <v>0.95</v>
@@ -28024,11 +28147,24 @@
         <v>711</v>
       </c>
       <c r="V10" s="260"/>
-      <c r="AA10" s="260"/>
-      <c r="AB10" s="260"/>
+      <c r="AA10" s="260">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>10) RNF-006 a: API002 - 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
       <c r="AC10" s="260"/>
-    </row>
-    <row r="11" spans="1:29" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="AD10" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/ordenes-pago/actualizaciondatos cuando los parametros de rendimiento son 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+      <c r="AG10" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="33.75">
       <c r="A11" s="261" t="s">
         <v>687</v>
       </c>
@@ -28042,8 +28178,8 @@
       <c r="E11" s="263" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="264" t="s">
-        <v>741</v>
+      <c r="F11" s="350" t="s">
+        <v>745</v>
       </c>
       <c r="G11" s="268" t="s">
         <v>692</v>
@@ -28077,7 +28213,7 @@
         <v>23</v>
       </c>
       <c r="R11" s="300" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="S11" s="267">
         <v>0.95</v>
@@ -28089,11 +28225,24 @@
         <v>711</v>
       </c>
       <c r="V11" s="260"/>
-      <c r="AA11" s="260"/>
-      <c r="AB11" s="260"/>
+      <c r="AA11" s="260">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>11) RNF-006 a: API002 - 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
       <c r="AC11" s="260"/>
-    </row>
-    <row r="12" spans="1:29" s="275" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/liquidaciones/ cuando los parametros de rendimiento son 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+      <c r="AG11" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="275" customFormat="1" ht="57" thickBot="1">
       <c r="A12" s="261" t="s">
         <v>687</v>
       </c>
@@ -28108,7 +28257,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="264" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G12" s="268" t="s">
         <v>715</v>
@@ -28142,7 +28291,7 @@
         <v>23</v>
       </c>
       <c r="R12" s="300" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="S12" s="267">
         <v>0.95</v>
@@ -28154,11 +28303,24 @@
         <v>711</v>
       </c>
       <c r="V12" s="306"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="260"/>
+      <c r="AA12" s="260">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>12) RNF-006 a: API002 - 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
       <c r="AC12" s="260"/>
-    </row>
-    <row r="13" spans="1:29" s="318" customFormat="1" ht="72.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AD12" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/liquidaciones/reporte-mensual cuando los parametros de rendimiento son 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+      <c r="AG12" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="318" customFormat="1" ht="72.75" thickTop="1">
       <c r="A13" s="307" t="s">
         <v>687</v>
       </c>
@@ -28173,7 +28335,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="310" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="G13" s="307" t="s">
         <v>691</v>
@@ -28221,11 +28383,24 @@
       <c r="V13" s="317" t="s">
         <v>696</v>
       </c>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
+      <c r="AA13" s="260">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>13) RNF-006 b: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC13" s="260"/>
-    </row>
-    <row r="14" spans="1:29" s="329" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD13" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/sunat cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG13" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="329" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="319" t="s">
         <v>687</v>
       </c>
@@ -28240,7 +28415,7 @@
         <v>90</v>
       </c>
       <c r="F14" s="322" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="G14" s="319" t="s">
         <v>718</v>
@@ -28285,11 +28460,24 @@
       <c r="U14" s="328" t="s">
         <v>730</v>
       </c>
-      <c r="AA14" s="260"/>
-      <c r="AB14" s="260"/>
+      <c r="AA14" s="260">
+        <v>14</v>
+      </c>
+      <c r="AB14" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>14) RNF-006 b: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC14" s="260"/>
-    </row>
-    <row r="15" spans="1:29" s="329" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD14" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG14" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="329" customFormat="1" ht="36">
       <c r="A15" s="319" t="s">
         <v>687</v>
       </c>
@@ -28304,7 +28492,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="322" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G15" s="319" t="s">
         <v>719</v>
@@ -28349,11 +28537,24 @@
       <c r="U15" s="328" t="s">
         <v>730</v>
       </c>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
+      <c r="AA15" s="260">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>15) RNF-006 b: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC15" s="260"/>
-    </row>
-    <row r="16" spans="1:29" s="335" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD15" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/expirado cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG15" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="335" customFormat="1" ht="36">
       <c r="A16" s="319" t="s">
         <v>687</v>
       </c>
@@ -28368,7 +28569,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="330" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G16" s="331" t="s">
         <v>720</v>
@@ -28414,11 +28615,24 @@
         <v>730</v>
       </c>
       <c r="V16" s="329"/>
-      <c r="AA16" s="260"/>
-      <c r="AB16" s="260"/>
+      <c r="AA16" s="260">
+        <v>16</v>
+      </c>
+      <c r="AB16" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>16) RNF-006 b: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC16" s="260"/>
-    </row>
-    <row r="17" spans="1:29" s="335" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD16" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/transferencia-bancaria cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG16" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="335" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="319" t="s">
         <v>687</v>
       </c>
@@ -28433,7 +28647,7 @@
         <v>90</v>
       </c>
       <c r="F17" s="322" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="G17" s="336" t="s">
         <v>721</v>
@@ -28479,11 +28693,24 @@
         <v>730</v>
       </c>
       <c r="V17" s="329"/>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
+      <c r="AA17" s="260">
+        <v>17</v>
+      </c>
+      <c r="AB17" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>17) RNF-006 b: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC17" s="260"/>
-    </row>
-    <row r="18" spans="1:29" s="335" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD17" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/extorno cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG17" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="335" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="319" t="s">
         <v>687</v>
       </c>
@@ -28498,7 +28725,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="322" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="G18" s="336" t="s">
         <v>722</v>
@@ -28544,11 +28771,24 @@
         <v>730</v>
       </c>
       <c r="V18" s="329"/>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
+      <c r="AA18" s="260">
+        <v>18</v>
+      </c>
+      <c r="AB18" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>18) RNF-006 b: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC18" s="260"/>
-    </row>
-    <row r="19" spans="1:29" s="335" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD18" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/pago cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG18" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="335" customFormat="1" ht="36">
       <c r="A19" s="319" t="s">
         <v>687</v>
       </c>
@@ -28563,7 +28803,7 @@
         <v>90</v>
       </c>
       <c r="F19" s="322" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="G19" s="336" t="s">
         <v>723</v>
@@ -28609,11 +28849,24 @@
         <v>730</v>
       </c>
       <c r="V19" s="329"/>
-      <c r="AA19" s="260"/>
-      <c r="AB19" s="260"/>
+      <c r="AA19" s="260">
+        <v>19</v>
+      </c>
+      <c r="AB19" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>19) RNF-006 b: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC19" s="260"/>
-    </row>
-    <row r="20" spans="1:29" s="335" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD19" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/extorno cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG19" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="335" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="319" t="s">
         <v>687</v>
       </c>
@@ -28628,7 +28881,7 @@
         <v>90</v>
       </c>
       <c r="F20" s="322" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G20" s="336" t="s">
         <v>724</v>
@@ -28674,11 +28927,24 @@
         <v>730</v>
       </c>
       <c r="V20" s="329"/>
-      <c r="AA20" s="260"/>
-      <c r="AB20" s="260"/>
+      <c r="AA20" s="260">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>20) RNF-006 b: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC20" s="260"/>
-    </row>
-    <row r="21" spans="1:29" s="335" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/pago cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG20" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" s="335" customFormat="1" ht="36.75" thickBot="1">
       <c r="A21" s="319" t="s">
         <v>687</v>
       </c>
@@ -28693,7 +28959,7 @@
         <v>90</v>
       </c>
       <c r="F21" s="322" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="G21" s="336" t="s">
         <v>725</v>
@@ -28739,11 +29005,24 @@
         <v>730</v>
       </c>
       <c r="V21" s="329"/>
-      <c r="AA21" s="260"/>
-      <c r="AB21" s="260"/>
+      <c r="AA21" s="260">
+        <v>21</v>
+      </c>
+      <c r="AB21" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>21) RNF-006 b: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC21" s="260"/>
-    </row>
-    <row r="22" spans="1:29" ht="72.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AD21" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/reasignacion cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG21" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="72.75" thickTop="1">
       <c r="A22" s="279" t="s">
         <v>687</v>
       </c>
@@ -28758,7 +29037,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="282" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="G22" s="279" t="s">
         <v>691</v>
@@ -28801,16 +29080,29 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="U22" s="348" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="V22" s="286" t="s">
         <v>703</v>
       </c>
-      <c r="AA22" s="260"/>
-      <c r="AB22" s="260"/>
+      <c r="AA22" s="260">
+        <v>22</v>
+      </c>
+      <c r="AB22" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>22) RNF-009: API001 - 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC22" s="260"/>
-    </row>
-    <row r="23" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD22" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/sunat cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG22" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="36">
       <c r="A23" s="261" t="s">
         <v>687</v>
       </c>
@@ -28825,7 +29117,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="264" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="G23" s="261" t="s">
         <v>718</v>
@@ -28868,14 +29160,27 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="U23" s="297" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="V23" s="260"/>
-      <c r="AA23" s="260"/>
-      <c r="AB23" s="260"/>
+      <c r="AA23" s="260">
+        <v>23</v>
+      </c>
+      <c r="AB23" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>23) RNF-009: API001 - 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC23" s="260"/>
-    </row>
-    <row r="24" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD23" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG23" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="36">
       <c r="A24" s="261" t="s">
         <v>687</v>
       </c>
@@ -28890,7 +29195,7 @@
         <v>90</v>
       </c>
       <c r="F24" s="264" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G24" s="261" t="s">
         <v>719</v>
@@ -28933,14 +29238,27 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="U24" s="297" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="V24" s="260"/>
-      <c r="AA24" s="260"/>
-      <c r="AB24" s="260"/>
+      <c r="AA24" s="260">
+        <v>24</v>
+      </c>
+      <c r="AB24" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>24) RNF-009: API001 - 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC24" s="260"/>
-    </row>
-    <row r="25" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD24" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/expirado cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG24" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="36">
       <c r="A25" s="261" t="s">
         <v>687</v>
       </c>
@@ -28955,7 +29273,7 @@
         <v>25</v>
       </c>
       <c r="F25" s="270" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G25" s="271" t="s">
         <v>726</v>
@@ -28998,14 +29316,27 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="U25" s="297" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="V25" s="260"/>
-      <c r="AA25" s="260"/>
-      <c r="AB25" s="260"/>
+      <c r="AA25" s="260">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>25) RNF-009: API001 - 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC25" s="260"/>
-    </row>
-    <row r="26" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD25" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/transferencia-bancaria cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG25" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="36">
       <c r="A26" s="261" t="s">
         <v>687</v>
       </c>
@@ -29020,7 +29351,7 @@
         <v>90</v>
       </c>
       <c r="F26" s="264" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="G26" s="268" t="s">
         <v>727</v>
@@ -29063,14 +29394,27 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="U26" s="297" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="V26" s="260"/>
-      <c r="AA26" s="260"/>
-      <c r="AB26" s="260"/>
+      <c r="AA26" s="260">
+        <v>26</v>
+      </c>
+      <c r="AB26" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>26) RNF-009: API001 - 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC26" s="260"/>
-    </row>
-    <row r="27" spans="1:29" ht="24" x14ac:dyDescent="0.2">
+      <c r="AD26" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/extorno cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG26" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="24">
       <c r="A27" s="261" t="s">
         <v>687</v>
       </c>
@@ -29085,7 +29429,7 @@
         <v>90</v>
       </c>
       <c r="F27" s="264" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="G27" s="268" t="s">
         <v>722</v>
@@ -29128,14 +29472,27 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="U27" s="297" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="V27" s="260"/>
-      <c r="AA27" s="260"/>
-      <c r="AB27" s="260"/>
+      <c r="AA27" s="260">
+        <v>27</v>
+      </c>
+      <c r="AB27" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>27) RNF-009: API001 - 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC27" s="260"/>
-    </row>
-    <row r="28" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD27" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/pago cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG27" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="36">
       <c r="A28" s="261" t="s">
         <v>687</v>
       </c>
@@ -29150,7 +29507,7 @@
         <v>90</v>
       </c>
       <c r="F28" s="264" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="G28" s="268" t="s">
         <v>723</v>
@@ -29193,14 +29550,27 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="U28" s="297" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="V28" s="260"/>
-      <c r="AA28" s="260"/>
-      <c r="AB28" s="260"/>
+      <c r="AA28" s="260">
+        <v>28</v>
+      </c>
+      <c r="AB28" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>28) RNF-009: API001 - 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC28" s="260"/>
-    </row>
-    <row r="29" spans="1:29" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD28" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/extorno cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG28" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="36">
       <c r="A29" s="261" t="s">
         <v>687</v>
       </c>
@@ -29215,7 +29585,7 @@
         <v>90</v>
       </c>
       <c r="F29" s="264" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G29" s="268" t="s">
         <v>728</v>
@@ -29258,14 +29628,27 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="U29" s="297" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="V29" s="260"/>
-      <c r="AA29" s="260"/>
-      <c r="AB29" s="260"/>
+      <c r="AA29" s="260">
+        <v>29</v>
+      </c>
+      <c r="AB29" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>29) RNF-009: API001 - 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC29" s="260"/>
-    </row>
-    <row r="30" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD29" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/pago cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG29" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="36.75" thickBot="1">
       <c r="A30" s="261" t="s">
         <v>687</v>
       </c>
@@ -29280,7 +29663,7 @@
         <v>90</v>
       </c>
       <c r="F30" s="264" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="G30" s="268" t="s">
         <v>725</v>
@@ -29323,14 +29706,27 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="U30" s="349" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="V30" s="260"/>
-      <c r="AA30" s="260"/>
-      <c r="AB30" s="260"/>
+      <c r="AA30" s="260">
+        <v>30</v>
+      </c>
+      <c r="AB30" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>30) RNF-009: API001 - 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC30" s="260"/>
-    </row>
-    <row r="31" spans="1:29" s="318" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AD30" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/reasignacion cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG30" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>73 Peticiones x 40 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" s="318" customFormat="1" ht="60.75" thickTop="1">
       <c r="A31" s="307" t="s">
         <v>687</v>
       </c>
@@ -29345,7 +29741,7 @@
         <v>25</v>
       </c>
       <c r="F31" s="310" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="G31" s="307" t="s">
         <v>691</v>
@@ -29393,11 +29789,24 @@
       <c r="V31" s="317" t="s">
         <v>698</v>
       </c>
-      <c r="AA31" s="260"/>
-      <c r="AB31" s="260"/>
+      <c r="AA31" s="260">
+        <v>31</v>
+      </c>
+      <c r="AB31" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>31) RNF-010: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC31" s="260"/>
-    </row>
-    <row r="32" spans="1:29" s="329" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD31" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/sunat cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG31" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" s="329" customFormat="1" ht="36">
       <c r="A32" s="319" t="s">
         <v>687</v>
       </c>
@@ -29412,7 +29821,7 @@
         <v>90</v>
       </c>
       <c r="F32" s="322" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="G32" s="319" t="s">
         <v>718</v>
@@ -29457,11 +29866,24 @@
       <c r="U32" s="328" t="s">
         <v>730</v>
       </c>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="260"/>
+      <c r="AA32" s="260">
+        <v>32</v>
+      </c>
+      <c r="AB32" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>32) RNF-010: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC32" s="260"/>
-    </row>
-    <row r="33" spans="1:29" s="329" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD32" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG32" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" s="329" customFormat="1" ht="36">
       <c r="A33" s="319" t="s">
         <v>687</v>
       </c>
@@ -29476,7 +29898,7 @@
         <v>90</v>
       </c>
       <c r="F33" s="322" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G33" s="319" t="s">
         <v>719</v>
@@ -29521,11 +29943,24 @@
       <c r="U33" s="328" t="s">
         <v>730</v>
       </c>
-      <c r="AA33" s="260"/>
-      <c r="AB33" s="260"/>
+      <c r="AA33" s="260">
+        <v>33</v>
+      </c>
+      <c r="AB33" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>33) RNF-010: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC33" s="260"/>
-    </row>
-    <row r="34" spans="1:29" s="335" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD33" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/expirado cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG33" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" s="335" customFormat="1" ht="36">
       <c r="A34" s="319" t="s">
         <v>687</v>
       </c>
@@ -29540,7 +29975,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="330" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G34" s="331" t="s">
         <v>726</v>
@@ -29586,11 +30021,24 @@
         <v>730</v>
       </c>
       <c r="V34" s="329"/>
-      <c r="AA34" s="260"/>
-      <c r="AB34" s="260"/>
+      <c r="AA34" s="260">
+        <v>34</v>
+      </c>
+      <c r="AB34" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>34) RNF-010: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC34" s="260"/>
-    </row>
-    <row r="35" spans="1:29" s="335" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD34" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/transferencia-bancaria cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG34" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" s="335" customFormat="1" ht="36">
       <c r="A35" s="319" t="s">
         <v>687</v>
       </c>
@@ -29605,7 +30053,7 @@
         <v>90</v>
       </c>
       <c r="F35" s="322" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="G35" s="336" t="s">
         <v>727</v>
@@ -29651,11 +30099,24 @@
         <v>730</v>
       </c>
       <c r="V35" s="329"/>
-      <c r="AA35" s="260"/>
-      <c r="AB35" s="260"/>
+      <c r="AA35" s="260">
+        <v>35</v>
+      </c>
+      <c r="AB35" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>35) RNF-010: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC35" s="260"/>
-    </row>
-    <row r="36" spans="1:29" s="335" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="AD35" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/extorno cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG35" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" s="335" customFormat="1" ht="33.75">
       <c r="A36" s="319" t="s">
         <v>687</v>
       </c>
@@ -29670,7 +30131,7 @@
         <v>90</v>
       </c>
       <c r="F36" s="322" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="G36" s="336" t="s">
         <v>722</v>
@@ -29716,11 +30177,24 @@
         <v>730</v>
       </c>
       <c r="V36" s="329"/>
-      <c r="AA36" s="260"/>
-      <c r="AB36" s="260"/>
+      <c r="AA36" s="260">
+        <v>36</v>
+      </c>
+      <c r="AB36" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>36) RNF-010: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC36" s="260"/>
-    </row>
-    <row r="37" spans="1:29" s="335" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD36" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/pago cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG36" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" s="335" customFormat="1" ht="36">
       <c r="A37" s="319" t="s">
         <v>687</v>
       </c>
@@ -29735,7 +30209,7 @@
         <v>90</v>
       </c>
       <c r="F37" s="322" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="G37" s="336" t="s">
         <v>723</v>
@@ -29781,11 +30255,24 @@
         <v>730</v>
       </c>
       <c r="V37" s="329"/>
-      <c r="AA37" s="260"/>
-      <c r="AB37" s="260"/>
+      <c r="AA37" s="260">
+        <v>37</v>
+      </c>
+      <c r="AB37" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>37) RNF-010: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC37" s="260"/>
-    </row>
-    <row r="38" spans="1:29" s="335" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD37" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/extorno cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG37" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" s="335" customFormat="1" ht="36">
       <c r="A38" s="319" t="s">
         <v>687</v>
       </c>
@@ -29800,7 +30287,7 @@
         <v>90</v>
       </c>
       <c r="F38" s="322" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G38" s="336" t="s">
         <v>728</v>
@@ -29846,11 +30333,24 @@
         <v>730</v>
       </c>
       <c r="V38" s="329"/>
-      <c r="AA38" s="260"/>
-      <c r="AB38" s="260"/>
+      <c r="AA38" s="260">
+        <v>38</v>
+      </c>
+      <c r="AB38" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>38) RNF-010: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC38" s="260"/>
-    </row>
-    <row r="39" spans="1:29" s="335" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD38" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/pago cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG38" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" s="335" customFormat="1" ht="36">
       <c r="A39" s="319" t="s">
         <v>687</v>
       </c>
@@ -29865,7 +30365,7 @@
         <v>90</v>
       </c>
       <c r="F39" s="322" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="G39" s="336" t="s">
         <v>725</v>
@@ -29911,11 +30411,24 @@
         <v>730</v>
       </c>
       <c r="V39" s="329"/>
-      <c r="AA39" s="260"/>
-      <c r="AB39" s="260"/>
+      <c r="AA39" s="260">
+        <v>39</v>
+      </c>
+      <c r="AB39" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>39) RNF-010: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC39" s="260"/>
-    </row>
-    <row r="40" spans="1:29" s="335" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="AD39" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/reasignacion cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG39" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" s="335" customFormat="1" ht="33.75">
       <c r="A40" s="319" t="s">
         <v>687</v>
       </c>
@@ -29930,7 +30443,7 @@
         <v>25</v>
       </c>
       <c r="F40" s="322" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G40" s="336" t="s">
         <v>716</v>
@@ -29976,11 +30489,24 @@
         <v>710</v>
       </c>
       <c r="V40" s="329"/>
-      <c r="AA40" s="260"/>
-      <c r="AB40" s="260"/>
+      <c r="AA40" s="260">
+        <v>40</v>
+      </c>
+      <c r="AB40" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>40) RNF-010: API002 - 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
       <c r="AC40" s="260"/>
-    </row>
-    <row r="41" spans="1:29" s="335" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="AD40" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/ordenes-pago/actualizaciondatos cuando los parametros de rendimiento son 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+      <c r="AG40" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" s="335" customFormat="1" ht="33.75">
       <c r="A41" s="319" t="s">
         <v>687</v>
       </c>
@@ -29994,8 +30520,8 @@
       <c r="E41" s="321" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="322" t="s">
-        <v>741</v>
+      <c r="F41" s="350" t="s">
+        <v>745</v>
       </c>
       <c r="G41" s="336" t="s">
         <v>692</v>
@@ -30041,11 +30567,24 @@
         <v>710</v>
       </c>
       <c r="V41" s="329"/>
-      <c r="AA41" s="260"/>
-      <c r="AB41" s="260"/>
+      <c r="AA41" s="260">
+        <v>41</v>
+      </c>
+      <c r="AB41" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>41) RNF-010: API002 - 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
       <c r="AC41" s="260"/>
-    </row>
-    <row r="42" spans="1:29" s="335" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD41" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/liquidaciones/ cuando los parametros de rendimiento son 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+      <c r="AG41" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" s="335" customFormat="1" ht="57" thickBot="1">
       <c r="A42" s="319" t="s">
         <v>687</v>
       </c>
@@ -30060,7 +30599,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="322" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G42" s="336" t="s">
         <v>729</v>
@@ -30106,11 +30645,24 @@
         <v>710</v>
       </c>
       <c r="V42" s="329"/>
-      <c r="AA42" s="260"/>
-      <c r="AB42" s="260"/>
+      <c r="AA42" s="260">
+        <v>42</v>
+      </c>
+      <c r="AB42" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>42) RNF-010: API002 - 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
       <c r="AC42" s="260"/>
-    </row>
-    <row r="43" spans="1:29" s="347" customFormat="1" ht="48.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AD42" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/liquidaciones/reporte-mensual cuando los parametros de rendimiento son 1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+      <c r="AG42" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>1 Peticiones x 60 Segundos x 1 Repeticiones</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" s="347" customFormat="1" ht="36.75" thickTop="1">
       <c r="A43" s="279" t="s">
         <v>687</v>
       </c>
@@ -30125,7 +30677,7 @@
         <v>32</v>
       </c>
       <c r="F43" s="282" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="G43" s="279" t="s">
         <v>694</v>
@@ -30170,11 +30722,24 @@
       <c r="U43" s="301" t="s">
         <v>710</v>
       </c>
-      <c r="AA43" s="260"/>
-      <c r="AB43" s="260"/>
+      <c r="AA43" s="260">
+        <v>43</v>
+      </c>
+      <c r="AB43" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>43) RNF-013: API002 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC43" s="260"/>
-    </row>
-    <row r="44" spans="1:29" s="260" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AD43" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/liquidaciones/reporte-ordenes-pago?entidadId=38&amp;fechaDesde=20230901&amp;fechaHasta=20240630 cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG43" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" s="260" customFormat="1" ht="24">
       <c r="A44" s="261" t="s">
         <v>687</v>
       </c>
@@ -30189,7 +30754,7 @@
         <v>32</v>
       </c>
       <c r="F44" s="264" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="G44" s="261" t="s">
         <v>717</v>
@@ -30234,8 +30799,23 @@
       <c r="U44" s="287" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" s="299" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA44" s="260">
+        <v>44</v>
+      </c>
+      <c r="AB44" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>44) RNF-013: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AD44" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/archivo cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG44" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="299" customFormat="1" ht="24.75" thickBot="1">
       <c r="A45" s="290" t="s">
         <v>687</v>
       </c>
@@ -30250,7 +30830,7 @@
         <v>32</v>
       </c>
       <c r="F45" s="292" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="G45" s="290" t="s">
         <v>690</v>
@@ -30295,11 +30875,24 @@
       <c r="U45" s="345" t="s">
         <v>710</v>
       </c>
-      <c r="AA45" s="260"/>
-      <c r="AB45" s="260"/>
+      <c r="AA45" s="260">
+        <v>45</v>
+      </c>
+      <c r="AB45" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>45) RNF-013: API001 - 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
       <c r="AC45" s="260"/>
-    </row>
-    <row r="46" spans="1:29" ht="12.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="AD45" s="260" t="str">
+        <f t="shared" si="1"/>
+        <v>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/status cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+      <c r="AG45" s="260" t="str">
+        <f t="shared" si="2"/>
+        <v>15 Peticiones x 60 Segundos x 10 Repeticiones</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="12.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30310,14 +30903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E328A8-1C4D-4D22-B764-BAEAD0D8D41E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
@@ -30338,7 +30931,7 @@
     <col min="18" max="18" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="30" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="30" customFormat="1" ht="69.75">
       <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
@@ -30354,14 +30947,14 @@
       <c r="E1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="362" t="s">
+      <c r="F1" s="363" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="363"/>
-      <c r="H1" s="363"/>
-      <c r="I1" s="363"/>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
       <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
@@ -30384,7 +30977,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30">
       <c r="A2" s="65" t="s">
         <v>644</v>
       </c>
@@ -30434,7 +31027,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="30">
       <c r="A3" s="65" t="s">
         <v>644</v>
       </c>
@@ -30486,7 +31079,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30">
       <c r="A4" s="65" t="s">
         <v>644</v>
       </c>
@@ -30538,7 +31131,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="30">
       <c r="A5" s="65" t="s">
         <v>644</v>
       </c>
@@ -30590,7 +31183,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="30">
       <c r="A6" s="65" t="s">
         <v>644</v>
       </c>
@@ -30642,7 +31235,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="30">
       <c r="A7" s="65" t="s">
         <v>644</v>
       </c>
@@ -30694,7 +31287,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="30">
       <c r="A8" s="65" t="s">
         <v>644</v>
       </c>
@@ -30746,7 +31339,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="30">
       <c r="A9" s="65" t="s">
         <v>644</v>
       </c>
@@ -30798,7 +31391,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="30">
       <c r="A10" s="65" t="s">
         <v>644</v>
       </c>
@@ -30850,7 +31443,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30">
       <c r="A11" s="65" t="s">
         <v>644</v>
       </c>
@@ -30911,7 +31504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACF2336-D8CE-479B-949A-4280301BEFD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30921,7 +31514,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
@@ -30930,7 +31523,7 @@
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="51" t="s">
         <v>660</v>
       </c>
@@ -30956,7 +31549,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="41.25">
       <c r="A2" s="53" t="s">
         <v>661</v>
       </c>
@@ -30976,7 +31569,7 @@
       <c r="G2" s="54"/>
       <c r="H2" s="56"/>
     </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="51">
       <c r="A3" s="57" t="s">
         <v>664</v>
       </c>
@@ -30996,7 +31589,7 @@
       <c r="G3" s="54"/>
       <c r="H3" s="56"/>
     </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="51">
       <c r="A4" s="57" t="s">
         <v>669</v>
       </c>
@@ -31014,7 +31607,7 @@
       <c r="G4" s="54"/>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="51">
       <c r="A5" s="57" t="s">
         <v>671</v>
       </c>
@@ -31040,20 +31633,20 @@
         <v>674</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="364" t="s">
+    <row r="6" spans="1:8" ht="39.75">
+      <c r="A6" s="365" t="s">
         <v>675</v>
       </c>
-      <c r="B6" s="364" t="s">
+      <c r="B6" s="365" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="364" t="s">
+      <c r="C6" s="365" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="366" t="s">
+      <c r="D6" s="367" t="s">
         <v>676</v>
       </c>
-      <c r="E6" s="367" t="s">
+      <c r="E6" s="368" t="s">
         <v>609</v>
       </c>
       <c r="F6" s="61" t="s">
@@ -31064,12 +31657,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="365"/>
-      <c r="B7" s="365"/>
-      <c r="C7" s="365"/>
-      <c r="D7" s="365"/>
-      <c r="E7" s="365"/>
+    <row r="7" spans="1:8" ht="52.5">
+      <c r="A7" s="366"/>
+      <c r="B7" s="366"/>
+      <c r="C7" s="366"/>
+      <c r="D7" s="366"/>
+      <c r="E7" s="366"/>
       <c r="F7" s="61" t="s">
         <v>678</v>
       </c>
@@ -31078,7 +31671,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="39.75">
       <c r="A8" s="57" t="s">
         <v>680</v>
       </c>
@@ -31102,7 +31695,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="31.5" customHeight="1">
       <c r="A9" s="57" t="s">
         <v>683</v>
       </c>
@@ -31133,12 +31726,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1DA514-F273-43AC-98BF-8CD76D19FDAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
@@ -31158,7 +31751,7 @@
     <col min="17" max="17" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -31174,14 +31767,14 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="350" t="s">
+      <c r="F1" s="351" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="353"/>
       <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
@@ -31198,8 +31791,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="353" t="s">
+    <row r="2" spans="1:17" ht="102">
+      <c r="A2" s="354" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -31249,8 +31842,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A3" s="354"/>
+    <row r="3" spans="1:17" ht="102">
+      <c r="A3" s="355"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -31297,8 +31890,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A4" s="355"/>
+    <row r="4" spans="1:17" ht="102">
+      <c r="A4" s="356"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
@@ -31345,7 +31938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="21">
       <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
@@ -31393,7 +31986,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="21">
       <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -31441,7 +32034,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="102">
       <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>25</v>
@@ -31489,7 +32082,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="102">
       <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>25</v>
@@ -31537,7 +32130,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="102">
       <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
@@ -31585,7 +32178,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="102">
       <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>25</v>
@@ -31633,7 +32226,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="102">
       <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
         <v>25</v>
@@ -31681,7 +32274,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="102">
       <c r="A12" s="13"/>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -31729,7 +32322,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="102">
       <c r="A13" s="13"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
@@ -31777,7 +32370,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="102">
       <c r="A14" s="13"/>
       <c r="B14" s="6" t="s">
         <v>25</v>
@@ -31825,7 +32418,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="102">
       <c r="A15" s="13"/>
       <c r="B15" s="6" t="s">
         <v>25</v>
@@ -31873,7 +32466,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="102">
       <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
         <v>25</v>
@@ -31921,7 +32514,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="102">
       <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
         <v>25</v>
@@ -31969,7 +32562,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="102">
       <c r="A18" s="13"/>
       <c r="B18" s="6" t="s">
         <v>25</v>
@@ -32017,7 +32610,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="102">
       <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
         <v>25</v>
@@ -32065,7 +32658,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="102">
       <c r="A20" s="13"/>
       <c r="B20" s="6" t="s">
         <v>25</v>
@@ -32113,7 +32706,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="102">
       <c r="A21" s="13"/>
       <c r="B21" s="6" t="s">
         <v>25</v>
@@ -32161,7 +32754,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="102">
       <c r="A22" s="13"/>
       <c r="B22" s="6" t="s">
         <v>25</v>
@@ -32209,7 +32802,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="102">
       <c r="A23" s="13"/>
       <c r="B23" s="6" t="s">
         <v>25</v>
@@ -32257,7 +32850,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="102">
       <c r="A24" s="13"/>
       <c r="B24" s="6" t="s">
         <v>25</v>
@@ -32305,7 +32898,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="102">
       <c r="A25" s="13"/>
       <c r="B25" s="6" t="s">
         <v>25</v>
@@ -32353,7 +32946,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="102">
       <c r="A26" s="13"/>
       <c r="B26" s="6" t="s">
         <v>25</v>
@@ -32401,7 +32994,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="102">
       <c r="A27" s="13"/>
       <c r="B27" s="6" t="s">
         <v>25</v>
@@ -32449,7 +33042,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="102">
       <c r="A28" s="13"/>
       <c r="B28" s="6" t="s">
         <v>25</v>
@@ -32497,7 +33090,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="102">
       <c r="A29" s="13"/>
       <c r="B29" s="6" t="s">
         <v>25</v>
@@ -32545,7 +33138,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="102">
       <c r="A30" s="13"/>
       <c r="B30" s="6" t="s">
         <v>25</v>
@@ -32593,7 +33186,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="102">
       <c r="A31" s="13"/>
       <c r="B31" s="6" t="s">
         <v>25</v>
@@ -32647,9 +33240,9 @@
     <mergeCell ref="A2:A4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5EC581E6-9536-49A6-97AB-9DC0ED032040}"/>
-    <hyperlink ref="C3:C21" r:id="rId2" display="https://api.github.com/orgs/TheLastMaverick/repos" xr:uid="{8F1242B7-52A3-4C52-B236-AB2CA423879F}"/>
-    <hyperlink ref="C22:C31" r:id="rId3" display="https://api.github.com/orgs/TheLastMaverick/repos" xr:uid="{9D80ABD5-978D-4620-A421-3F6D2B56E800}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C21" r:id="rId2" display="https://api.github.com/orgs/TheLastMaverick/repos"/>
+    <hyperlink ref="C22:C31" r:id="rId3" display="https://api.github.com/orgs/TheLastMaverick/repos"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
@@ -32657,14 +33250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06D32A7-B07C-4ECE-AE16-5B7CC10CF026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
@@ -32675,7 +33268,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="36" t="s">
         <v>37</v>
       </c>
@@ -32690,7 +33283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="37" t="s">
         <v>40</v>
       </c>
@@ -32705,7 +33298,7 @@
       </c>
       <c r="E2" s="38"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="37" t="s">
         <v>44</v>
       </c>
@@ -32720,7 +33313,7 @@
       </c>
       <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="37" t="s">
         <v>47</v>
       </c>
@@ -32735,7 +33328,7 @@
       </c>
       <c r="E4" s="38"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
@@ -32750,7 +33343,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="37" t="s">
         <v>53</v>
       </c>
@@ -32765,7 +33358,7 @@
       </c>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="37" t="s">
         <v>56</v>
       </c>
@@ -32780,7 +33373,7 @@
       </c>
       <c r="E7" s="38"/>
     </row>
-    <row r="8" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="195">
       <c r="A8" s="40" t="s">
         <v>59</v>
       </c>
@@ -32797,7 +33390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="37" t="s">
         <v>63</v>
       </c>
@@ -32812,7 +33405,7 @@
       </c>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="37" t="s">
         <v>66</v>
       </c>
@@ -32827,7 +33420,7 @@
       </c>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -32840,14 +33433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989B9697-1712-4F4C-A303-FE1EE41C2AD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -32857,7 +33450,7 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="90" t="s">
         <v>69</v>
       </c>
@@ -32865,7 +33458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="90" t="s">
         <v>71</v>
       </c>
@@ -32873,7 +33466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="90" t="s">
         <v>72</v>
       </c>
@@ -32896,7 +33489,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -32923,7 +33516,7 @@
         <v>Marco Quiroz</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -32950,7 +33543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -32977,7 +33570,7 @@
         <v>Marco Quiroz</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -33004,7 +33597,7 @@
         <v>Marco Quiroz</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -33031,7 +33624,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -33058,7 +33651,7 @@
         <v>Marco Quiroz</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -33085,7 +33678,7 @@
         <v>Marco Quiroz</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -33112,7 +33705,7 @@
         <v>Marco Quiroz</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -33139,7 +33732,7 @@
         <v>Marco Quiroz</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -33166,7 +33759,7 @@
         <v>Marco Quiroz</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -33193,7 +33786,7 @@
         <v>Marco Quiroz</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -33220,7 +33813,7 @@
         <v>Guido Ramos</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -33247,7 +33840,7 @@
         <v>Guido Ramos</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -33274,7 +33867,7 @@
         <v>Guido Ramos</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -33301,7 +33894,7 @@
         <v>Guido Ramos</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -33328,7 +33921,7 @@
         <v>Guido Ramos</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -33355,7 +33948,7 @@
         <v>Guillermo Barboza</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -33382,7 +33975,7 @@
         <v>Guillermo Barboza</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -33409,7 +34002,7 @@
         <v>Guillermo Barboza</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>140</v>
       </c>
@@ -33436,7 +34029,7 @@
         <v>Guillermo Barboza</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -33463,7 +34056,7 @@
         <v>Jenny Laynes</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -33490,7 +34083,7 @@
         <v>Jenny Laynes</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -33517,7 +34110,7 @@
         <v>Jenny Laynes</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -33544,7 +34137,7 @@
         <v>Jenny Laynes</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -33571,7 +34164,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -33598,7 +34191,7 @@
         <v>Jenny Laynes</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -33625,7 +34218,7 @@
         <v>Jenny Laynes</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -33652,7 +34245,7 @@
         <v>Jenny Laynes</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -33679,7 +34272,7 @@
         <v>Jenny Laynes</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -33706,7 +34299,7 @@
         <v>Jenny Laynes</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -33733,7 +34326,7 @@
         <v>Rosa Odar</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -33760,7 +34353,7 @@
         <v>Rosa Odar</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -33787,7 +34380,7 @@
         <v>Rosa Odar</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>181</v>
       </c>
@@ -33814,7 +34407,7 @@
         <v>Rosa Odar</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -33841,7 +34434,7 @@
         <v>Rosa Odar</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>187</v>
       </c>
@@ -33865,7 +34458,7 @@
         <v>Rosa Odar</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -33889,7 +34482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>193</v>
       </c>
@@ -33913,7 +34506,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -33937,7 +34530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -33961,7 +34554,7 @@
         <v>Rosa Odar</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>201</v>
       </c>
@@ -33985,7 +34578,7 @@
         <v>Rosa Odar</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -33996,14 +34589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03094B09-663E-414F-96CF-DBCE586A33B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -34017,7 +34610,7 @@
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -34025,7 +34618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -34033,7 +34626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -34041,7 +34634,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="153" t="s">
         <v>72</v>
       </c>
@@ -34076,7 +34669,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="152" t="s">
         <v>78</v>
       </c>
@@ -34111,7 +34704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="152" t="s">
         <v>86</v>
       </c>
@@ -34146,7 +34739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="152" t="s">
         <v>89</v>
       </c>
@@ -34181,7 +34774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="152" t="s">
         <v>95</v>
       </c>
@@ -34216,7 +34809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="152" t="s">
         <v>98</v>
       </c>
@@ -34251,7 +34844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="152" t="s">
         <v>100</v>
       </c>
@@ -34286,7 +34879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="152" t="s">
         <v>103</v>
       </c>
@@ -34312,7 +34905,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="152" t="s">
         <v>106</v>
       </c>
@@ -34338,7 +34931,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="152" t="s">
         <v>110</v>
       </c>
@@ -34364,7 +34957,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="152" t="s">
         <v>113</v>
       </c>
@@ -34390,7 +34983,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="152" t="s">
         <v>116</v>
       </c>
@@ -34416,7 +35009,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="152" t="s">
         <v>119</v>
       </c>
@@ -34442,7 +35035,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="152" t="s">
         <v>122</v>
       </c>
@@ -34468,7 +35061,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="152" t="s">
         <v>127</v>
       </c>
@@ -34494,7 +35087,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="152" t="s">
         <v>131</v>
       </c>
@@ -34520,7 +35113,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="152" t="s">
         <v>134</v>
       </c>
@@ -34546,7 +35139,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="152" t="s">
         <v>137</v>
       </c>
@@ -34572,7 +35165,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="152" t="s">
         <v>140</v>
       </c>
@@ -34598,7 +35191,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="152" t="s">
         <v>143</v>
       </c>
@@ -34624,7 +35217,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="152" t="s">
         <v>146</v>
       </c>
@@ -34650,7 +35243,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="152" t="s">
         <v>148</v>
       </c>
@@ -34676,7 +35269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="152" t="s">
         <v>152</v>
       </c>
@@ -34702,7 +35295,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="152" t="s">
         <v>158</v>
       </c>
@@ -34728,7 +35321,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="152" t="s">
         <v>161</v>
       </c>
@@ -34754,7 +35347,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="152" t="s">
         <v>164</v>
       </c>
@@ -34780,7 +35373,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="152" t="s">
         <v>167</v>
       </c>
@@ -34806,7 +35399,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="152" t="s">
         <v>170</v>
       </c>
@@ -34832,7 +35425,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="152" t="s">
         <v>173</v>
       </c>
@@ -34858,7 +35451,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="152" t="s">
         <v>176</v>
       </c>
@@ -34884,7 +35477,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="152" t="s">
         <v>178</v>
       </c>
@@ -34910,7 +35503,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="152" t="s">
         <v>181</v>
       </c>
@@ -34936,7 +35529,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="152" t="s">
         <v>184</v>
       </c>
@@ -34962,7 +35555,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="152" t="s">
         <v>187</v>
       </c>
@@ -34988,7 +35581,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="152" t="s">
         <v>198</v>
       </c>
@@ -35014,7 +35607,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="152" t="s">
         <v>201</v>
       </c>
@@ -35040,7 +35633,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="H41">
         <f>COUNTA(H6:H40)</f>
         <v>35</v>
@@ -35048,7 +35641,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H40" xr:uid="{DE2A2172-6E3E-4936-994F-4E5D2165D003}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H40">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35057,7 +35650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5A085C-7116-4EC6-B315-0F00A1552E16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L47"/>
   <sheetViews>
@@ -35065,7 +35658,7 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -35079,7 +35672,7 @@
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -35087,7 +35680,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -35095,7 +35688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -35103,7 +35696,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="153" t="s">
         <v>72</v>
       </c>
@@ -35138,7 +35731,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="152" t="s">
         <v>78</v>
       </c>
@@ -35173,7 +35766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" s="152" t="s">
         <v>83</v>
       </c>
@@ -35208,7 +35801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1">
       <c r="A8" s="152" t="s">
         <v>86</v>
       </c>
@@ -35243,7 +35836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="152" t="s">
         <v>89</v>
       </c>
@@ -35278,7 +35871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="152" t="s">
         <v>92</v>
       </c>
@@ -35313,7 +35906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="152" t="s">
         <v>95</v>
       </c>
@@ -35348,7 +35941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="152" t="s">
         <v>98</v>
       </c>
@@ -35374,7 +35967,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="152" t="s">
         <v>100</v>
       </c>
@@ -35400,7 +35993,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="152" t="s">
         <v>103</v>
       </c>
@@ -35426,7 +36019,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="152" t="s">
         <v>106</v>
       </c>
@@ -35452,7 +36045,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="152" t="s">
         <v>110</v>
       </c>
@@ -35478,7 +36071,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" s="152" t="s">
         <v>113</v>
       </c>
@@ -35504,7 +36097,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" s="152" t="s">
         <v>116</v>
       </c>
@@ -35530,7 +36123,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" s="152" t="s">
         <v>119</v>
       </c>
@@ -35556,7 +36149,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" s="152" t="s">
         <v>122</v>
       </c>
@@ -35582,7 +36175,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" s="152" t="s">
         <v>127</v>
       </c>
@@ -35608,7 +36201,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="152" t="s">
         <v>131</v>
       </c>
@@ -35634,7 +36227,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="152" t="s">
         <v>134</v>
       </c>
@@ -35660,7 +36253,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" s="152" t="s">
         <v>137</v>
       </c>
@@ -35686,7 +36279,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" s="152" t="s">
         <v>140</v>
       </c>
@@ -35712,7 +36305,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" s="152" t="s">
         <v>143</v>
       </c>
@@ -35738,7 +36331,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" s="152" t="s">
         <v>146</v>
       </c>
@@ -35764,7 +36357,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="152" t="s">
         <v>148</v>
       </c>
@@ -35790,7 +36383,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" s="152" t="s">
         <v>152</v>
       </c>
@@ -35816,7 +36409,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" s="152" t="s">
         <v>155</v>
       </c>
@@ -35842,7 +36435,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" s="152" t="s">
         <v>158</v>
       </c>
@@ -35868,7 +36461,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" s="152" t="s">
         <v>161</v>
       </c>
@@ -35894,7 +36487,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" s="152" t="s">
         <v>164</v>
       </c>
@@ -35920,7 +36513,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" s="152" t="s">
         <v>167</v>
       </c>
@@ -35946,7 +36539,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" s="152" t="s">
         <v>170</v>
       </c>
@@ -35972,7 +36565,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="182" customFormat="1">
       <c r="A36" s="217" t="s">
         <v>173</v>
       </c>
@@ -35998,7 +36591,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="182" customFormat="1">
       <c r="A37" s="217" t="s">
         <v>176</v>
       </c>
@@ -36024,7 +36617,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="182" customFormat="1">
       <c r="A38" s="217" t="s">
         <v>178</v>
       </c>
@@ -36050,7 +36643,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="182" customFormat="1">
       <c r="A39" s="218" t="s">
         <v>181</v>
       </c>
@@ -36076,7 +36669,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="182" customFormat="1">
       <c r="A40" s="217" t="s">
         <v>184</v>
       </c>
@@ -36102,7 +36695,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="182" customFormat="1">
       <c r="A41" s="217" t="s">
         <v>187</v>
       </c>
@@ -36128,7 +36721,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" s="217" t="s">
         <v>190</v>
       </c>
@@ -36154,7 +36747,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" s="217" t="s">
         <v>193</v>
       </c>
@@ -36180,7 +36773,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" s="217" t="s">
         <v>196</v>
       </c>
@@ -36206,7 +36799,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="182" customFormat="1">
       <c r="A45" s="217" t="s">
         <v>198</v>
       </c>
@@ -36232,7 +36825,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="182" customFormat="1">
       <c r="A46" s="217" t="s">
         <v>201</v>
       </c>
@@ -36258,14 +36851,14 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1">
       <c r="H47">
         <f>COUNTA(H6:H46)</f>
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:H47" xr:uid="{BA5A085C-7116-4EC6-B315-0F00A1552E16}">
+  <autoFilter ref="A5:H47">
     <filterColumn colId="6">
       <filters>
         <filter val="Rosa Odar"/>
@@ -36273,7 +36866,7 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H46" xr:uid="{DF7A8324-CC60-463F-8D69-A7E4979E004E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H46">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36282,7 +36875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1A1346-BAA8-4B0C-A34B-3873F3A6486A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -36292,7 +36885,7 @@
       <selection activeCell="E34" sqref="E24:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
@@ -36305,7 +36898,7 @@
     <col min="10" max="10" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="25.5">
       <c r="A1" s="125" t="s">
         <v>598</v>
       </c>
@@ -36318,15 +36911,15 @@
       <c r="D1" s="126" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="356" t="s">
+      <c r="E1" s="357" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="358"/>
+      <c r="F1" s="358"/>
+      <c r="G1" s="358"/>
+      <c r="H1" s="359"/>
       <c r="I1" s="255"/>
     </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="25.5">
       <c r="A2" s="127" t="s">
         <v>551</v>
       </c>
@@ -36353,7 +36946,7 @@
       </c>
       <c r="I2" s="256"/>
     </row>
-    <row r="3" spans="1:13" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="102">
       <c r="A3" s="130" t="s">
         <v>551</v>
       </c>
@@ -36383,7 +36976,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="25.5">
       <c r="A4" s="127" t="s">
         <v>555</v>
       </c>
@@ -36410,7 +37003,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="142.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="142.9" customHeight="1">
       <c r="A5" s="135" t="s">
         <v>555</v>
       </c>
@@ -36451,7 +37044,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="25.5">
       <c r="A6" s="127" t="s">
         <v>562</v>
       </c>
@@ -36480,7 +37073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="63.75">
       <c r="A7" s="130" t="s">
         <v>562</v>
       </c>
@@ -36510,7 +37103,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="89.25">
       <c r="A8" s="130" t="s">
         <v>562</v>
       </c>
@@ -36538,7 +37131,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="25.5">
       <c r="A9" s="127" t="s">
         <v>570</v>
       </c>
@@ -36566,7 +37159,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="89.25">
       <c r="A10" s="135" t="s">
         <v>570</v>
       </c>
@@ -36594,7 +37187,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="45">
       <c r="A11" s="135" t="s">
         <v>570</v>
       </c>
@@ -36620,7 +37213,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="45">
       <c r="A12" s="135" t="s">
         <v>570</v>
       </c>
@@ -36658,7 +37251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDFCB8B-FC3C-4B39-8AE0-BA022E3EE2BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V92"/>
   <sheetViews>
@@ -36670,7 +37263,7 @@
       <selection pane="bottomRight" activeCell="E34" sqref="E24:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -36689,7 +37282,7 @@
     <col min="21" max="21" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="45">
       <c r="A1" s="36" t="s">
         <v>72</v>
       </c>
@@ -36751,7 +37344,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="75">
       <c r="A2" s="69" t="s">
         <v>78</v>
       </c>
@@ -36810,7 +37403,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="409.5">
       <c r="A3" s="69" t="s">
         <v>83</v>
       </c>
@@ -36867,7 +37460,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="75">
       <c r="A4" s="69" t="s">
         <v>86</v>
       </c>
@@ -36926,7 +37519,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="409.5">
       <c r="A5" s="69" t="s">
         <v>89</v>
       </c>
@@ -36987,7 +37580,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="90">
       <c r="A6" s="69" t="s">
         <v>92</v>
       </c>
@@ -37042,7 +37635,7 @@
       </c>
       <c r="R6" s="66"/>
     </row>
-    <row r="7" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="135">
       <c r="A7" s="69" t="s">
         <v>95</v>
       </c>
@@ -37103,7 +37696,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="135">
       <c r="A8" s="69" t="s">
         <v>98</v>
       </c>
@@ -37164,7 +37757,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="105">
       <c r="A9" s="69" t="s">
         <v>100</v>
       </c>
@@ -37223,7 +37816,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="90">
       <c r="A10" s="69" t="s">
         <v>103</v>
       </c>
@@ -37282,7 +37875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="88" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="88" customFormat="1" ht="105" hidden="1">
       <c r="A11" s="81" t="s">
         <v>249</v>
       </c>
@@ -37329,7 +37922,7 @@
       </c>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="135">
       <c r="A12" s="69" t="s">
         <v>106</v>
       </c>
@@ -37388,7 +37981,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="105">
       <c r="A13" s="69" t="s">
         <v>110</v>
       </c>
@@ -37447,7 +38040,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="120">
       <c r="A14" s="69" t="s">
         <v>113</v>
       </c>
@@ -37508,7 +38101,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="409.5">
       <c r="A15" s="69" t="s">
         <v>116</v>
       </c>
@@ -37569,7 +38162,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="45">
       <c r="A16" s="69" t="s">
         <v>119</v>
       </c>
@@ -37628,7 +38221,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="105">
       <c r="A17" s="69" t="s">
         <v>122</v>
       </c>
@@ -37687,7 +38280,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="90">
       <c r="A18" s="69" t="s">
         <v>127</v>
       </c>
@@ -37746,7 +38339,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="120">
       <c r="A19" s="69" t="s">
         <v>131</v>
       </c>
@@ -37805,7 +38398,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="90">
       <c r="A20" s="69" t="s">
         <v>134</v>
       </c>
@@ -37864,7 +38457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="105">
       <c r="A21" s="69" t="s">
         <v>137</v>
       </c>
@@ -37921,7 +38514,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="75">
       <c r="A22" s="69" t="s">
         <v>140</v>
       </c>
@@ -37978,7 +38571,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="42" customHeight="1">
       <c r="A23" s="69" t="s">
         <v>143</v>
       </c>
@@ -38035,7 +38628,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="60" customHeight="1">
       <c r="A24" s="69" t="s">
         <v>146</v>
       </c>
@@ -38094,7 +38687,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="60" hidden="1">
       <c r="A25" s="69" t="s">
         <v>287</v>
       </c>
@@ -38149,7 +38742,7 @@
       </c>
       <c r="R25" s="66"/>
     </row>
-    <row r="26" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="60" hidden="1">
       <c r="A26" s="69" t="s">
         <v>294</v>
       </c>
@@ -38204,7 +38797,7 @@
       </c>
       <c r="R26" s="66"/>
     </row>
-    <row r="27" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="210" hidden="1">
       <c r="A27" s="69" t="s">
         <v>299</v>
       </c>
@@ -38261,7 +38854,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="45" hidden="1">
       <c r="A28" s="69" t="s">
         <v>304</v>
       </c>
@@ -38319,7 +38912,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="60" hidden="1">
       <c r="A29" s="69" t="s">
         <v>307</v>
       </c>
@@ -38374,7 +38967,7 @@
       </c>
       <c r="R29" s="66"/>
     </row>
-    <row r="30" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="30" hidden="1">
       <c r="A30" s="69" t="s">
         <v>312</v>
       </c>
@@ -38427,7 +39020,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="60" hidden="1">
       <c r="A31" s="69" t="s">
         <v>315</v>
       </c>
@@ -38485,7 +39078,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="60" hidden="1">
       <c r="A32" s="69" t="s">
         <v>320</v>
       </c>
@@ -38545,7 +39138,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="409.5" hidden="1">
       <c r="A33" s="81" t="s">
         <v>325</v>
       </c>
@@ -38608,7 +39201,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="60">
       <c r="A34" s="69" t="s">
         <v>148</v>
       </c>
@@ -38669,7 +39262,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="255" hidden="1">
       <c r="A35" s="94" t="s">
         <v>335</v>
       </c>
@@ -38729,7 +39322,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="180" hidden="1">
       <c r="A36" s="77" t="s">
         <v>339</v>
       </c>
@@ -38775,7 +39368,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="195" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="195">
       <c r="A37" s="94" t="s">
         <v>152</v>
       </c>
@@ -38836,7 +39429,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="135" hidden="1">
       <c r="A38" s="94" t="s">
         <v>350</v>
       </c>
@@ -38896,7 +39489,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="60" hidden="1">
       <c r="A39" s="94" t="s">
         <v>353</v>
       </c>
@@ -38956,7 +39549,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="409.5">
       <c r="A40" s="94" t="s">
         <v>155</v>
       </c>
@@ -39016,7 +39609,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="409.5" hidden="1">
       <c r="A41" s="77" t="s">
         <v>361</v>
       </c>
@@ -39062,7 +39655,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="90">
       <c r="A42" s="77" t="s">
         <v>158</v>
       </c>
@@ -39123,7 +39716,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="105">
       <c r="A43" s="77" t="s">
         <v>161</v>
       </c>
@@ -39184,7 +39777,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="135">
       <c r="A44" s="77" t="s">
         <v>164</v>
       </c>
@@ -39243,7 +39836,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="75">
       <c r="A45" s="94" t="s">
         <v>167</v>
       </c>
@@ -39304,7 +39897,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="75" hidden="1">
       <c r="A46" s="94" t="s">
         <v>377</v>
       </c>
@@ -39364,7 +39957,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="180">
       <c r="A47" s="69" t="s">
         <v>170</v>
       </c>
@@ -39422,7 +40015,7 @@
       </c>
       <c r="V47" s="111"/>
     </row>
-    <row r="48" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="45" hidden="1">
       <c r="A48" s="69" t="s">
         <v>384</v>
       </c>
@@ -39466,7 +40059,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="105">
       <c r="A49" s="69" t="s">
         <v>173</v>
       </c>
@@ -39523,7 +40116,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="105">
       <c r="A50" s="69" t="s">
         <v>176</v>
       </c>
@@ -39582,7 +40175,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="75" hidden="1">
       <c r="A51" s="69" t="s">
         <v>393</v>
       </c>
@@ -39642,7 +40235,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="90">
       <c r="A52" s="69" t="s">
         <v>178</v>
       </c>
@@ -39701,7 +40294,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="120">
       <c r="A53" s="69" t="s">
         <v>181</v>
       </c>
@@ -39760,7 +40353,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="105">
       <c r="A54" s="69" t="s">
         <v>184</v>
       </c>
@@ -39819,7 +40412,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="210" hidden="1">
       <c r="A55" s="69" t="s">
         <v>405</v>
       </c>
@@ -39874,7 +40467,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="75" hidden="1">
       <c r="A56" s="69" t="s">
         <v>410</v>
       </c>
@@ -39927,7 +40520,7 @@
       </c>
       <c r="R56" s="66"/>
     </row>
-    <row r="57" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="75" hidden="1">
       <c r="A57" s="69" t="s">
         <v>415</v>
       </c>
@@ -39982,7 +40575,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="90" hidden="1">
       <c r="A58" s="69" t="s">
         <v>420</v>
       </c>
@@ -40035,7 +40628,7 @@
       </c>
       <c r="R58" s="66"/>
     </row>
-    <row r="59" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="105" hidden="1">
       <c r="A59" s="69" t="s">
         <v>425</v>
       </c>
@@ -40089,7 +40682,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="105" hidden="1">
       <c r="A60" s="69" t="s">
         <v>429</v>
       </c>
@@ -40143,7 +40736,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="90" hidden="1">
       <c r="A61" s="69" t="s">
         <v>431</v>
       </c>
@@ -40195,7 +40788,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="77.25" hidden="1" customHeight="1">
       <c r="A62" s="69" t="s">
         <v>434</v>
       </c>
@@ -40254,7 +40847,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="105" hidden="1">
       <c r="A63" s="69" t="s">
         <v>438</v>
       </c>
@@ -40312,7 +40905,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="30">
       <c r="A64" s="69" t="s">
         <v>187</v>
       </c>
@@ -40365,7 +40958,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="105" hidden="1">
       <c r="A65" s="69" t="s">
         <v>445</v>
       </c>
@@ -40423,7 +41016,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="75" hidden="1">
       <c r="A66" s="69" t="s">
         <v>449</v>
       </c>
@@ -40479,7 +41072,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="195" hidden="1">
       <c r="A67" s="69" t="s">
         <v>452</v>
       </c>
@@ -40523,7 +41116,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="255" hidden="1">
       <c r="A68" s="69" t="s">
         <v>455</v>
       </c>
@@ -40567,7 +41160,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="75" hidden="1">
       <c r="A69" s="69" t="s">
         <v>458</v>
       </c>
@@ -40620,7 +41213,7 @@
       </c>
       <c r="R69" s="66"/>
     </row>
-    <row r="70" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="75" hidden="1">
       <c r="A70" s="69" t="s">
         <v>461</v>
       </c>
@@ -40672,7 +41265,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="75" hidden="1">
       <c r="A71" s="69" t="s">
         <v>465</v>
       </c>
@@ -40725,7 +41318,7 @@
       </c>
       <c r="R71" s="66"/>
     </row>
-    <row r="72" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="60" hidden="1">
       <c r="A72" s="69" t="s">
         <v>468</v>
       </c>
@@ -40776,7 +41369,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="75" hidden="1">
       <c r="A73" s="69" t="s">
         <v>473</v>
       </c>
@@ -40826,7 +41419,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="75" hidden="1">
       <c r="A74" s="69" t="s">
         <v>478</v>
       </c>
@@ -40872,7 +41465,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="75" hidden="1">
       <c r="A75" s="69" t="s">
         <v>482</v>
       </c>
@@ -40918,7 +41511,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="165" hidden="1">
       <c r="A76" s="69" t="s">
         <v>485</v>
       </c>
@@ -40971,7 +41564,7 @@
       </c>
       <c r="R76" s="66"/>
     </row>
-    <row r="77" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="120">
       <c r="A77" s="69" t="s">
         <v>190</v>
       </c>
@@ -41026,7 +41619,7 @@
       </c>
       <c r="R77" s="66"/>
     </row>
-    <row r="78" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="105">
       <c r="A78" s="69" t="s">
         <v>193</v>
       </c>
@@ -41081,7 +41674,7 @@
       </c>
       <c r="R78" s="66"/>
     </row>
-    <row r="79" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="105">
       <c r="A79" s="69" t="s">
         <v>196</v>
       </c>
@@ -41136,7 +41729,7 @@
       </c>
       <c r="R79" s="66"/>
     </row>
-    <row r="80" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="120" hidden="1">
       <c r="A80" s="69" t="s">
         <v>495</v>
       </c>
@@ -41192,7 +41785,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="120" hidden="1">
       <c r="A81" s="69" t="s">
         <v>500</v>
       </c>
@@ -41248,7 +41841,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="60" hidden="1">
       <c r="A82" s="69" t="s">
         <v>502</v>
       </c>
@@ -41304,7 +41897,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="60" hidden="1">
       <c r="A83" s="69" t="s">
         <v>507</v>
       </c>
@@ -41359,7 +41952,7 @@
       </c>
       <c r="R83" s="66"/>
     </row>
-    <row r="84" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="105" hidden="1">
       <c r="A84" s="69" t="s">
         <v>511</v>
       </c>
@@ -41414,7 +42007,7 @@
       </c>
       <c r="R84" s="66"/>
     </row>
-    <row r="85" spans="1:20" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="90" hidden="1">
       <c r="A85" s="69" t="s">
         <v>515</v>
       </c>
@@ -41469,7 +42062,7 @@
       </c>
       <c r="R85" s="66"/>
     </row>
-    <row r="86" spans="1:20" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="90" hidden="1">
       <c r="A86" s="69" t="s">
         <v>518</v>
       </c>
@@ -41522,7 +42115,7 @@
       </c>
       <c r="R86" s="66"/>
     </row>
-    <row r="87" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="105" hidden="1">
       <c r="A87" s="69" t="s">
         <v>523</v>
       </c>
@@ -41576,7 +42169,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="90" hidden="1">
       <c r="A88" s="69" t="s">
         <v>529</v>
       </c>
@@ -41632,7 +42225,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="135">
       <c r="A89" s="69" t="s">
         <v>198</v>
       </c>
@@ -41691,7 +42284,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="120">
       <c r="A90" s="69" t="s">
         <v>201</v>
       </c>
@@ -41750,7 +42343,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="45" hidden="1">
       <c r="A91" s="69" t="s">
         <v>539</v>
       </c>
@@ -41808,7 +42401,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="60" hidden="1">
       <c r="A92" s="69" t="s">
         <v>543</v>
       </c>
@@ -41867,7 +42460,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T92" xr:uid="{3CDFCB8B-FC3C-4B39-8AE0-BA022E3EE2BE}">
+  <autoFilter ref="A1:T92">
     <filterColumn colId="8">
       <filters>
         <filter val="Alta"/>
@@ -41886,10 +42479,10 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I92" xr:uid="{D9E83491-4494-4B17-B80E-8462C9039546}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I92">
       <formula1>"Alta, Media, Baja"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J92" xr:uid="{FDF94159-4561-4D0E-8F18-13396BD956F1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J92"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41898,7 +42491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1792B4B1-B8BF-4F1A-AE58-21C73C5C92E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -41908,7 +42501,7 @@
       <selection pane="bottomRight" activeCell="C43" sqref="C43:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -41933,7 +42526,7 @@
     <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="30" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="30" customFormat="1" ht="69.75">
       <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
@@ -41958,14 +42551,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="359" t="s">
+      <c r="I1" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
-      <c r="M1" s="360"/>
-      <c r="N1" s="360"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -41988,7 +42581,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="37.5">
       <c r="A2" s="44" t="s">
         <v>79</v>
       </c>
@@ -42047,7 +42640,7 @@
       </c>
       <c r="U2" s="43"/>
     </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="37.5">
       <c r="A3" s="44" t="s">
         <v>79</v>
       </c>
@@ -42104,7 +42697,7 @@
       </c>
       <c r="U3" s="43"/>
     </row>
-    <row r="4" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="32.25" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>79</v>
       </c>
@@ -42161,7 +42754,7 @@
       </c>
       <c r="U4" s="43"/>
     </row>
-    <row r="5" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="37.5">
       <c r="A5" s="44" t="s">
         <v>79</v>
       </c>
@@ -42218,7 +42811,7 @@
       </c>
       <c r="U5" s="43"/>
     </row>
-    <row r="6" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="37.5">
       <c r="A6" s="44" t="s">
         <v>79</v>
       </c>
@@ -42275,7 +42868,7 @@
       </c>
       <c r="U6" s="43"/>
     </row>
-    <row r="7" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="37.5">
       <c r="A7" s="44" t="s">
         <v>79</v>
       </c>
@@ -42332,7 +42925,7 @@
       </c>
       <c r="U7" s="43"/>
     </row>
-    <row r="8" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="37.5">
       <c r="A8" s="44" t="s">
         <v>79</v>
       </c>
@@ -42389,7 +42982,7 @@
       </c>
       <c r="U8" s="43"/>
     </row>
-    <row r="9" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="37.5">
       <c r="A9" s="44" t="s">
         <v>79</v>
       </c>
@@ -42446,7 +43039,7 @@
       </c>
       <c r="U9" s="43"/>
     </row>
-    <row r="10" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="37.5">
       <c r="A10" s="44" t="s">
         <v>79</v>
       </c>
@@ -42503,7 +43096,7 @@
       </c>
       <c r="U10" s="43"/>
     </row>
-    <row r="11" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="37.5">
       <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
@@ -42558,7 +43151,7 @@
       </c>
       <c r="U11" s="43"/>
     </row>
-    <row r="12" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="37.5">
       <c r="A12" s="44" t="s">
         <v>79</v>
       </c>
@@ -42613,7 +43206,7 @@
       </c>
       <c r="U12" s="43"/>
     </row>
-    <row r="13" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="37.5">
       <c r="A13" s="44" t="s">
         <v>79</v>
       </c>
@@ -42668,7 +43261,7 @@
       </c>
       <c r="U13" s="43"/>
     </row>
-    <row r="14" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="37.5">
       <c r="A14" s="44" t="s">
         <v>79</v>
       </c>
@@ -42719,7 +43312,7 @@
       <c r="T14" s="43"/>
       <c r="U14" s="43"/>
     </row>
-    <row r="15" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="37.5">
       <c r="A15" s="44" t="s">
         <v>79</v>
       </c>
@@ -42762,7 +43355,7 @@
       </c>
       <c r="U15" s="43"/>
     </row>
-    <row r="16" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="37.5">
       <c r="A16" s="44" t="s">
         <v>79</v>
       </c>
@@ -42805,7 +43398,7 @@
       </c>
       <c r="U16" s="43"/>
     </row>
-    <row r="17" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="37.5">
       <c r="A17" s="44" t="s">
         <v>79</v>
       </c>
@@ -42848,7 +43441,7 @@
       </c>
       <c r="U17" s="43"/>
     </row>
-    <row r="18" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="37.5">
       <c r="A18" s="44" t="s">
         <v>79</v>
       </c>
@@ -42891,7 +43484,7 @@
       </c>
       <c r="U18" s="43"/>
     </row>
-    <row r="19" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="37.5">
       <c r="A19" s="44" t="s">
         <v>79</v>
       </c>
@@ -42934,7 +43527,7 @@
       </c>
       <c r="U19" s="43"/>
     </row>
-    <row r="20" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="37.5">
       <c r="A20" s="44" t="s">
         <v>79</v>
       </c>
@@ -42977,7 +43570,7 @@
       </c>
       <c r="U20" s="43"/>
     </row>
-    <row r="21" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="37.5">
       <c r="A21" s="44" t="s">
         <v>79</v>
       </c>
@@ -43020,7 +43613,7 @@
       </c>
       <c r="U21" s="43"/>
     </row>
-    <row r="22" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="37.5">
       <c r="A22" s="44" t="s">
         <v>79</v>
       </c>
@@ -43063,7 +43656,7 @@
       </c>
       <c r="U22" s="43"/>
     </row>
-    <row r="23" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="37.5">
       <c r="A23" s="44" t="s">
         <v>79</v>
       </c>
@@ -43106,7 +43699,7 @@
       </c>
       <c r="U23" s="43"/>
     </row>
-    <row r="24" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="37.5">
       <c r="A24" s="44" t="s">
         <v>79</v>
       </c>
@@ -43147,7 +43740,7 @@
       </c>
       <c r="U24" s="43"/>
     </row>
-    <row r="25" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="37.5">
       <c r="A25" s="44" t="s">
         <v>79</v>
       </c>
@@ -43188,7 +43781,7 @@
       </c>
       <c r="U25" s="43"/>
     </row>
-    <row r="26" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="37.5">
       <c r="A26" s="44" t="s">
         <v>79</v>
       </c>
@@ -43229,7 +43822,7 @@
       </c>
       <c r="U26" s="43"/>
     </row>
-    <row r="27" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="37.5">
       <c r="A27" s="44" t="s">
         <v>79</v>
       </c>
@@ -43266,7 +43859,7 @@
       <c r="T27" s="43"/>
       <c r="U27" s="43"/>
     </row>
-    <row r="28" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="37.5">
       <c r="A28" s="44" t="s">
         <v>79</v>
       </c>
@@ -43303,7 +43896,7 @@
       <c r="T28" s="43"/>
       <c r="U28" s="43"/>
     </row>
-    <row r="29" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="37.5">
       <c r="A29" s="44" t="s">
         <v>79</v>
       </c>
@@ -43340,7 +43933,7 @@
       <c r="T29" s="43"/>
       <c r="U29" s="43"/>
     </row>
-    <row r="30" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="37.5">
       <c r="A30" s="44" t="s">
         <v>79</v>
       </c>
@@ -43377,7 +43970,7 @@
       <c r="T30" s="43"/>
       <c r="U30" s="43"/>
     </row>
-    <row r="31" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="37.5">
       <c r="A31" s="44" t="s">
         <v>79</v>
       </c>
@@ -43414,7 +44007,7 @@
       <c r="T31" s="43"/>
       <c r="U31" s="43"/>
     </row>
-    <row r="32" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="37.5">
       <c r="A32" s="44" t="s">
         <v>79</v>
       </c>
@@ -43451,7 +44044,7 @@
       <c r="T32" s="43"/>
       <c r="U32" s="43"/>
     </row>
-    <row r="33" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="37.5">
       <c r="A33" s="44" t="s">
         <v>79</v>
       </c>
@@ -43488,7 +44081,7 @@
       <c r="T33" s="43"/>
       <c r="U33" s="43"/>
     </row>
-    <row r="34" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="37.5">
       <c r="A34" s="44" t="s">
         <v>79</v>
       </c>
@@ -43525,7 +44118,7 @@
       <c r="T34" s="43"/>
       <c r="U34" s="43"/>
     </row>
-    <row r="35" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="37.5">
       <c r="A35" s="117" t="s">
         <v>109</v>
       </c>
@@ -43568,7 +44161,7 @@
       </c>
       <c r="U35" s="43"/>
     </row>
-    <row r="36" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="37.5">
       <c r="A36" s="117"/>
       <c r="B36" s="118" t="s">
         <v>551</v>
@@ -43609,7 +44202,7 @@
       </c>
       <c r="U36" s="43"/>
     </row>
-    <row r="37" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="37.5">
       <c r="A37" s="117"/>
       <c r="B37" s="118" t="s">
         <v>555</v>
@@ -43650,7 +44243,7 @@
       </c>
       <c r="U37" s="43"/>
     </row>
-    <row r="38" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="37.5">
       <c r="A38" s="117"/>
       <c r="B38" s="118" t="s">
         <v>555</v>
@@ -43691,7 +44284,7 @@
       </c>
       <c r="U38" s="43"/>
     </row>
-    <row r="39" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="37.5">
       <c r="A39" s="117"/>
       <c r="B39" s="118" t="s">
         <v>555</v>
@@ -43732,7 +44325,7 @@
       </c>
       <c r="U39" s="43"/>
     </row>
-    <row r="40" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="37.5">
       <c r="A40" s="117"/>
       <c r="B40" s="118" t="s">
         <v>562</v>
@@ -43773,7 +44366,7 @@
       </c>
       <c r="U40" s="43"/>
     </row>
-    <row r="41" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="37.5">
       <c r="A41" s="117"/>
       <c r="B41" s="118" t="s">
         <v>562</v>
@@ -43814,7 +44407,7 @@
       </c>
       <c r="U41" s="43"/>
     </row>
-    <row r="42" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="37.5">
       <c r="A42" s="117"/>
       <c r="B42" s="118" t="s">
         <v>562</v>
@@ -43855,7 +44448,7 @@
       </c>
       <c r="U42" s="43"/>
     </row>
-    <row r="43" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="37.5">
       <c r="A43" s="117"/>
       <c r="B43" s="118" t="s">
         <v>562</v>
@@ -43896,7 +44489,7 @@
       </c>
       <c r="U43" s="43"/>
     </row>
-    <row r="44" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="37.5">
       <c r="A44" s="117"/>
       <c r="B44" s="118" t="s">
         <v>570</v>
@@ -43935,7 +44528,7 @@
       </c>
       <c r="U44" s="43"/>
     </row>
-    <row r="45" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="37.5">
       <c r="A45" s="117"/>
       <c r="B45" s="118" t="s">
         <v>570</v>
@@ -43974,7 +44567,7 @@
       </c>
       <c r="U45" s="43"/>
     </row>
-    <row r="46" spans="1:21" ht="42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="42">
       <c r="A46" s="117"/>
       <c r="B46" s="118" t="s">
         <v>570</v>
@@ -44013,7 +44606,7 @@
       </c>
       <c r="U46" s="43"/>
     </row>
-    <row r="47" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="37.5">
       <c r="A47" s="117"/>
       <c r="B47" s="118" t="s">
         <v>577</v>
@@ -44048,7 +44641,7 @@
       <c r="T47" s="43"/>
       <c r="U47" s="43"/>
     </row>
-    <row r="48" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="21">
       <c r="A48" s="117"/>
       <c r="B48" s="118"/>
       <c r="C48" s="118"/>
@@ -44071,7 +44664,7 @@
       <c r="T48" s="43"/>
       <c r="U48" s="43"/>
     </row>
-    <row r="49" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="37.5">
       <c r="A49" s="117" t="s">
         <v>109</v>
       </c>
@@ -44108,7 +44701,7 @@
       <c r="T49" s="43"/>
       <c r="U49" s="43"/>
     </row>
-    <row r="50" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="37.5">
       <c r="A50" s="117" t="s">
         <v>109</v>
       </c>
@@ -44145,7 +44738,7 @@
       <c r="T50" s="43"/>
       <c r="U50" s="43"/>
     </row>
-    <row r="51" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="37.5">
       <c r="A51" s="117" t="s">
         <v>109</v>
       </c>
@@ -44182,7 +44775,7 @@
       <c r="T51" s="43"/>
       <c r="U51" s="43"/>
     </row>
-    <row r="52" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="37.5">
       <c r="A52" s="117" t="s">
         <v>109</v>
       </c>
@@ -44219,7 +44812,7 @@
       <c r="T52" s="43"/>
       <c r="U52" s="43"/>
     </row>
-    <row r="53" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="37.5">
       <c r="A53" s="117" t="s">
         <v>109</v>
       </c>
@@ -44256,7 +44849,7 @@
       <c r="T53" s="43"/>
       <c r="U53" s="43"/>
     </row>
-    <row r="54" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="37.5">
       <c r="A54" s="117" t="s">
         <v>109</v>
       </c>
@@ -44293,7 +44886,7 @@
       <c r="T54" s="43"/>
       <c r="U54" s="43"/>
     </row>
-    <row r="55" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="37.5">
       <c r="A55" s="117" t="s">
         <v>109</v>
       </c>
@@ -44330,7 +44923,7 @@
       <c r="T55" s="43"/>
       <c r="U55" s="43"/>
     </row>
-    <row r="56" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="37.5">
       <c r="A56" s="117" t="s">
         <v>109</v>
       </c>
@@ -44367,7 +44960,7 @@
       <c r="T56" s="43"/>
       <c r="U56" s="43"/>
     </row>
-    <row r="57" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="37.5">
       <c r="A57" s="44" t="s">
         <v>139</v>
       </c>
@@ -44404,7 +44997,7 @@
       <c r="T57" s="43"/>
       <c r="U57" s="43"/>
     </row>
-    <row r="58" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="37.5">
       <c r="A58" s="44" t="s">
         <v>139</v>
       </c>
@@ -44441,7 +45034,7 @@
       <c r="T58" s="43"/>
       <c r="U58" s="43"/>
     </row>
-    <row r="59" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="37.5">
       <c r="A59" s="44" t="s">
         <v>139</v>
       </c>
@@ -44478,7 +45071,7 @@
       <c r="T59" s="43"/>
       <c r="U59" s="43"/>
     </row>
-    <row r="60" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="37.5">
       <c r="A60" s="44" t="s">
         <v>139</v>
       </c>
@@ -44515,7 +45108,7 @@
       <c r="T60" s="43"/>
       <c r="U60" s="43"/>
     </row>
-    <row r="61" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="37.5">
       <c r="A61" s="44" t="s">
         <v>139</v>
       </c>
@@ -44552,7 +45145,7 @@
       <c r="T61" s="43"/>
       <c r="U61" s="43"/>
     </row>
-    <row r="62" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="37.5">
       <c r="A62" s="44" t="s">
         <v>139</v>
       </c>
@@ -44589,7 +45182,7 @@
       <c r="T62" s="43"/>
       <c r="U62" s="43"/>
     </row>
-    <row r="63" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="37.5">
       <c r="A63" s="44" t="s">
         <v>139</v>
       </c>
@@ -44626,7 +45219,7 @@
       <c r="T63" s="43"/>
       <c r="U63" s="43"/>
     </row>
-    <row r="64" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="37.5">
       <c r="A64" s="44" t="s">
         <v>139</v>
       </c>
@@ -44663,7 +45256,7 @@
       <c r="T64" s="43"/>
       <c r="U64" s="43"/>
     </row>
-    <row r="65" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="37.5">
       <c r="A65" s="44" t="s">
         <v>139</v>
       </c>
@@ -44700,7 +45293,7 @@
       <c r="T65" s="43"/>
       <c r="U65" s="43"/>
     </row>
-    <row r="66" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="37.5">
       <c r="A66" s="44" t="s">
         <v>149</v>
       </c>
@@ -44743,7 +45336,7 @@
       </c>
       <c r="U66" s="43"/>
     </row>
-    <row r="67" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="37.5">
       <c r="A67" s="44" t="s">
         <v>149</v>
       </c>
@@ -44786,7 +45379,7 @@
       </c>
       <c r="U67" s="43"/>
     </row>
-    <row r="68" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="21">
       <c r="A68" s="44" t="s">
         <v>149</v>
       </c>
@@ -44819,7 +45412,7 @@
       <c r="T68" s="43"/>
       <c r="U68" s="43"/>
     </row>
-    <row r="69" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="21">
       <c r="A69" s="44" t="s">
         <v>149</v>
       </c>
@@ -44852,7 +45445,7 @@
       <c r="T69" s="43"/>
       <c r="U69" s="43"/>
     </row>
-    <row r="70" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="21">
       <c r="A70" s="44" t="s">
         <v>149</v>
       </c>
@@ -44885,7 +45478,7 @@
       <c r="T70" s="43"/>
       <c r="U70" s="43"/>
     </row>
-    <row r="71" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="21">
       <c r="A71" s="44" t="s">
         <v>149</v>
       </c>
@@ -44918,7 +45511,7 @@
       <c r="T71" s="43"/>
       <c r="U71" s="43"/>
     </row>
-    <row r="72" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="21">
       <c r="A72" s="44" t="s">
         <v>149</v>
       </c>
@@ -44951,7 +45544,7 @@
       <c r="T72" s="43"/>
       <c r="U72" s="43"/>
     </row>
-    <row r="73" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="21">
       <c r="A73" s="44" t="s">
         <v>149</v>
       </c>
@@ -44984,7 +45577,7 @@
       <c r="T73" s="43"/>
       <c r="U73" s="43"/>
     </row>
-    <row r="74" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="21">
       <c r="A74" s="44" t="s">
         <v>149</v>
       </c>
@@ -45017,7 +45610,7 @@
       <c r="T74" s="43"/>
       <c r="U74" s="43"/>
     </row>
-    <row r="75" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="21">
       <c r="A75" s="44" t="s">
         <v>149</v>
       </c>
@@ -45050,7 +45643,7 @@
       <c r="T75" s="43"/>
       <c r="U75" s="43"/>
     </row>
-    <row r="76" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="21">
       <c r="A76" s="44" t="s">
         <v>149</v>
       </c>
@@ -45083,7 +45676,7 @@
       <c r="T76" s="43"/>
       <c r="U76" s="43"/>
     </row>
-    <row r="77" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="21">
       <c r="A77" s="44" t="s">
         <v>149</v>
       </c>
@@ -45116,7 +45709,7 @@
       <c r="T77" s="43"/>
       <c r="U77" s="43"/>
     </row>
-    <row r="78" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="21">
       <c r="A78" s="44" t="s">
         <v>149</v>
       </c>
@@ -45149,7 +45742,7 @@
       <c r="T78" s="43"/>
       <c r="U78" s="43"/>
     </row>
-    <row r="79" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="21">
       <c r="A79" s="44"/>
       <c r="B79" s="65"/>
       <c r="C79" s="65"/>
@@ -45172,7 +45765,7 @@
       <c r="T79" s="43"/>
       <c r="U79" s="43"/>
     </row>
-    <row r="80" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="37.5">
       <c r="A80" s="44" t="s">
         <v>149</v>
       </c>
@@ -45209,7 +45802,7 @@
       <c r="T80" s="43"/>
       <c r="U80" s="43"/>
     </row>
-    <row r="81" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="37.5">
       <c r="A81" s="44" t="s">
         <v>149</v>
       </c>
@@ -45246,7 +45839,7 @@
       <c r="T81" s="43"/>
       <c r="U81" s="43"/>
     </row>
-    <row r="82" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="37.5">
       <c r="A82" s="44" t="s">
         <v>149</v>
       </c>
@@ -45283,7 +45876,7 @@
       <c r="T82" s="43"/>
       <c r="U82" s="43"/>
     </row>
-    <row r="83" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="37.5">
       <c r="A83" s="44" t="s">
         <v>149</v>
       </c>
@@ -45320,7 +45913,7 @@
       <c r="T83" s="43"/>
       <c r="U83" s="43"/>
     </row>
-    <row r="84" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="37.5">
       <c r="A84" s="44" t="s">
         <v>149</v>
       </c>
@@ -45357,7 +45950,7 @@
       <c r="T84" s="43"/>
       <c r="U84" s="43"/>
     </row>
-    <row r="85" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="37.5">
       <c r="A85" s="44" t="s">
         <v>149</v>
       </c>
@@ -45394,7 +45987,7 @@
       <c r="T85" s="43"/>
       <c r="U85" s="43"/>
     </row>
-    <row r="86" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="37.5">
       <c r="A86" s="44" t="s">
         <v>149</v>
       </c>
@@ -45432,7 +46025,7 @@
       <c r="U86" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U86" xr:uid="{1792B4B1-B8BF-4F1A-AE58-21C73C5C92E5}">
+  <autoFilter ref="A1:U86">
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>
@@ -45447,15 +46040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
@@ -45467,7 +46051,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -45728,15 +46312,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -45747,7 +46332,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{887FAF34-80BB-48BB-86C2-0B670D773116}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45764,4 +46349,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>